--- a/CompetencesCPGE2021_Simplifiees_XP.xlsx
+++ b/CompetencesCPGE2021_Simplifiees_XP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A057BB-B86B-49BD-BAEF-A0341A57B229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C649BB79-9A3D-4542-A6D0-CEEDF0A38197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9800" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11480" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RéflexionsXP" sheetId="44" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
     <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
-    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="600">
   <si>
     <t>A1-01</t>
   </si>
@@ -1870,9 +1870,6 @@
     <t>Résoudre un problème en utilisant l'apprentissage automatisé</t>
   </si>
   <si>
-    <t>Résoudre un problème en utilisant l'apprentissage automatisé profond</t>
-  </si>
-  <si>
     <t>Modélisation par équation booléenne</t>
   </si>
   <si>
@@ -2023,9 +2020,6 @@
     <t>(15:2)</t>
   </si>
   <si>
-    <t>Linéariser une équation</t>
-  </si>
-  <si>
     <t>(16:2)</t>
   </si>
   <si>
@@ -2147,6 +2141,15 @@
   </si>
   <si>
     <t>(4:1),(37:2)</t>
+  </si>
+  <si>
+    <t>Modéliser un correcteur numérique</t>
+  </si>
+  <si>
+    <t>Linéariser une équation, simplifier un modèle</t>
+  </si>
+  <si>
+    <t>Compétences expérimentales</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +2648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3024,23 +3027,8 @@
     <xf numFmtId="0" fontId="27" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3057,6 +3045,24 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3067,14 +3073,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3162,10 +3175,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3431,636 +3440,1332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA8FD29-6739-43DF-AA05-FBA91CDC0FC0}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="B122" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" style="142" customWidth="1"/>
-    <col min="2" max="2" width="42.6328125" style="142" customWidth="1"/>
-    <col min="3" max="3" width="1.7265625" style="142" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40" style="128" customWidth="1"/>
+    <col min="2" max="2" width="61.6328125" style="128" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="128" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="15.26953125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="142" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="128" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="143" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" s="143" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C2" s="143" t="s">
         <v>523</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="D2" s="143" t="s">
+        <v>545</v>
+      </c>
+      <c r="E2" s="143" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="128" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="128" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="128" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" t="s">
+        <v>546</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="128" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="128" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="128" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="128" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="128" t="s">
+        <v>475</v>
+      </c>
+      <c r="D9" t="s">
+        <v>559</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="128" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="128" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="128" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="128" t="s">
+        <v>477</v>
+      </c>
+      <c r="E13" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="128" t="s">
+        <v>583</v>
+      </c>
+      <c r="E14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="128" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="128" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="128" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="128" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="128" t="s">
+        <v>478</v>
+      </c>
+      <c r="D19" t="s">
+        <v>552</v>
+      </c>
+      <c r="E19" t="s">
+        <v>535</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="128" t="s">
+        <v>516</v>
+      </c>
+      <c r="C20" s="128" t="s">
+        <v>543</v>
+      </c>
+      <c r="D20" t="s">
+        <v>554</v>
+      </c>
+      <c r="E20" s="128" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="128" t="s">
+        <v>479</v>
+      </c>
+      <c r="C21" s="128" t="s">
+        <v>526</v>
+      </c>
+      <c r="D21" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="128" t="s">
+        <v>517</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>541</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>255</v>
+      </c>
+      <c r="I22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="128" t="s">
+        <v>482</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="128" t="s">
+        <v>483</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>220</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="128" t="s">
+        <v>482</v>
+      </c>
+      <c r="C25" s="128" t="s">
+        <v>524</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="128" t="s">
+        <v>484</v>
+      </c>
+      <c r="C26" s="128" t="s">
+        <v>525</v>
+      </c>
+      <c r="E26" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="128" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="128" t="s">
+        <v>480</v>
+      </c>
+      <c r="C29" s="128" t="s">
+        <v>548</v>
+      </c>
+      <c r="E29" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B30" s="128" t="s">
+        <v>580</v>
+      </c>
+      <c r="C30" s="128" t="s">
+        <v>527</v>
+      </c>
+      <c r="E30" t="s">
+        <v>581</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="128" t="s">
+        <v>481</v>
+      </c>
+      <c r="D31" s="128" t="s">
+        <v>550</v>
+      </c>
+      <c r="E31" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="128" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="128" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="128" t="s">
+        <v>521</v>
+      </c>
+      <c r="C34" s="128" t="s">
+        <v>535</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="128" t="s">
+        <v>518</v>
+      </c>
+      <c r="C35" s="128" t="s">
+        <v>533</v>
+      </c>
+      <c r="D35" t="s">
+        <v>557</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="128" t="s">
+        <v>520</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="128" t="s">
+        <v>598</v>
+      </c>
+      <c r="D38" t="s">
+        <v>556</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="128" t="s">
+        <v>488</v>
+      </c>
+      <c r="C39" s="128" t="s">
+        <v>528</v>
+      </c>
+      <c r="D39" t="s">
+        <v>566</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="128" t="s">
+        <v>486</v>
+      </c>
+      <c r="D40" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B41" s="128" t="s">
+        <v>563</v>
+      </c>
+      <c r="C41" s="128" t="s">
+        <v>536</v>
+      </c>
+      <c r="D41" t="s">
+        <v>564</v>
+      </c>
+      <c r="E41" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="128" t="s">
+        <v>487</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="128" t="s">
+        <v>571</v>
+      </c>
+      <c r="D43" t="s">
+        <v>572</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="128" t="s">
+        <v>465</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="128" t="s">
+        <v>558</v>
+      </c>
+      <c r="C46" s="128" t="s">
+        <v>534</v>
+      </c>
+      <c r="D46" t="s">
+        <v>565</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="128" t="s">
+        <v>489</v>
+      </c>
+      <c r="C47" s="128" t="s">
+        <v>539</v>
+      </c>
+      <c r="E47" t="s">
+        <v>591</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="128" t="s">
+        <v>490</v>
+      </c>
+      <c r="C48" s="128" t="s">
+        <v>537</v>
+      </c>
+      <c r="E48" t="s">
+        <v>569</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="128" t="s">
+        <v>491</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="128" t="s">
+        <v>592</v>
+      </c>
+      <c r="C50" s="128" t="s">
+        <v>529</v>
+      </c>
+      <c r="D50" t="s">
+        <v>567</v>
+      </c>
+      <c r="E50" s="128" t="s">
+        <v>539</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="128" t="s">
+        <v>492</v>
+      </c>
+      <c r="D51" t="s">
+        <v>568</v>
+      </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="128" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B54" s="128" t="s">
+        <v>570</v>
+      </c>
+      <c r="C54" s="128" t="s">
+        <v>538</v>
+      </c>
+      <c r="D54" t="s">
+        <v>569</v>
+      </c>
+      <c r="E54" s="128" t="s">
+        <v>595</v>
+      </c>
+      <c r="G54" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="128" t="s">
+        <v>493</v>
+      </c>
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="128" t="s">
+        <v>494</v>
+      </c>
+      <c r="G56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="128" t="s">
+        <v>496</v>
+      </c>
+      <c r="G57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="128" t="s">
+        <v>495</v>
+      </c>
+      <c r="G58" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="128" t="s">
+        <v>497</v>
+      </c>
+      <c r="G59" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="128" t="s">
+        <v>597</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="128" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="128" t="s">
+        <v>501</v>
+      </c>
+      <c r="D62" s="128" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="128" t="s">
+        <v>498</v>
+      </c>
+      <c r="E63" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="128" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B65" s="128" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="128" t="s">
+        <v>502</v>
+      </c>
+      <c r="G66" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B67" s="128" t="s">
+        <v>513</v>
+      </c>
+      <c r="C67" s="128" t="s">
+        <v>532</v>
+      </c>
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B68" s="128" t="s">
+        <v>503</v>
+      </c>
+      <c r="G68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B69" s="128" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B70" s="128" t="s">
+        <v>578</v>
+      </c>
+      <c r="E70" t="s">
+        <v>586</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B71" s="128" t="s">
+        <v>505</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>188</v>
+      </c>
+      <c r="I71" t="s">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s">
+        <v>260</v>
+      </c>
+      <c r="K71" t="s">
+        <v>62</v>
+      </c>
+      <c r="L71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="128" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B74" s="128" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B75" s="128" t="s">
+        <v>507</v>
+      </c>
+      <c r="E75" t="s">
+        <v>562</v>
+      </c>
+      <c r="G75" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B76" s="128" t="s">
+        <v>589</v>
+      </c>
+      <c r="E76" t="s">
+        <v>590</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="128" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B78" s="128" t="s">
+        <v>508</v>
+      </c>
+      <c r="G78" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B79" s="128" t="s">
+        <v>509</v>
+      </c>
+      <c r="D79" s="128" t="s">
+        <v>547</v>
+      </c>
+      <c r="E79" t="s">
+        <v>588</v>
+      </c>
+      <c r="G79" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B80" s="128" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="S81" t="s">
+        <v>147</v>
+      </c>
+      <c r="T81" t="s">
+        <v>160</v>
+      </c>
+      <c r="U81" t="s">
+        <v>146</v>
+      </c>
+      <c r="V81" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B82" s="128" t="s">
+        <v>576</v>
+      </c>
+      <c r="E82" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>0</v>
+      </c>
+      <c r="R82" t="s">
+        <v>168</v>
+      </c>
+      <c r="S82" t="s">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s">
+        <v>174</v>
+      </c>
+      <c r="U82" t="s">
+        <v>8</v>
+      </c>
+      <c r="V82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B83" s="128" t="s">
+        <v>549</v>
+      </c>
+      <c r="D83" s="128" t="s">
+        <v>573</v>
+      </c>
+      <c r="E83" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>1</v>
+      </c>
+      <c r="R83" t="s">
+        <v>170</v>
+      </c>
+      <c r="S83" t="s">
+        <v>6</v>
+      </c>
+      <c r="T83" t="s">
+        <v>406</v>
+      </c>
+      <c r="U83" t="s">
+        <v>9</v>
+      </c>
+      <c r="V83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B84" s="128" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>2</v>
+      </c>
+      <c r="R84" t="s">
+        <v>171</v>
+      </c>
+      <c r="S84" t="s">
+        <v>7</v>
+      </c>
+      <c r="T84" t="s">
+        <v>177</v>
+      </c>
+      <c r="U84" t="s">
+        <v>10</v>
+      </c>
+      <c r="V84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="B85" s="128" t="s">
         <v>515</v>
       </c>
-      <c r="D1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E1" s="142" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="142" t="s">
-        <v>524</v>
-      </c>
-      <c r="D2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="142" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="142" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" s="142" t="s">
-        <v>543</v>
-      </c>
-      <c r="D4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="142" t="s">
-        <v>471</v>
-      </c>
-      <c r="D5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="142" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="142" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="142" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="142" t="s">
-        <v>475</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C85" s="128" t="s">
+        <v>540</v>
+      </c>
+      <c r="D85" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="142" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="142" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="142" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="142" t="s">
-        <v>477</v>
-      </c>
-      <c r="E13" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="142" t="s">
+      <c r="E85" t="s">
+        <v>596</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
+        <v>195</v>
+      </c>
+      <c r="I85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>196</v>
+      </c>
+      <c r="K85" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>3</v>
+      </c>
+      <c r="R85" t="s">
+        <v>172</v>
+      </c>
+      <c r="U85" t="s">
+        <v>11</v>
+      </c>
+      <c r="V85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B86" s="128" t="s">
+        <v>530</v>
+      </c>
+      <c r="C86" s="128" t="s">
+        <v>531</v>
+      </c>
+      <c r="D86" t="s">
+        <v>531</v>
+      </c>
+      <c r="E86" s="128" t="s">
         <v>585</v>
       </c>
-      <c r="E14" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="142" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="142" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B18" s="142" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B19" s="142" t="s">
-        <v>478</v>
-      </c>
-      <c r="D19" t="s">
-        <v>553</v>
-      </c>
-      <c r="E19" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="142" t="s">
-        <v>517</v>
-      </c>
-      <c r="C20" s="142" t="s">
-        <v>544</v>
-      </c>
-      <c r="D20" t="s">
-        <v>555</v>
-      </c>
-      <c r="E20" s="142" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="142" t="s">
-        <v>479</v>
-      </c>
-      <c r="C21" s="142" t="s">
-        <v>527</v>
-      </c>
-      <c r="D21" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="142" t="s">
-        <v>518</v>
-      </c>
-      <c r="C22" s="142" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="142" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="142" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="142" t="s">
-        <v>482</v>
-      </c>
-      <c r="C25" s="142" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="C26" s="142" t="s">
-        <v>526</v>
-      </c>
-      <c r="E26" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="142" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B29" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="C29" s="142" t="s">
-        <v>549</v>
-      </c>
-      <c r="E29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="142" t="s">
-        <v>582</v>
-      </c>
-      <c r="C30" s="142" t="s">
-        <v>528</v>
-      </c>
-      <c r="E30" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B31" s="142" t="s">
-        <v>481</v>
-      </c>
-      <c r="D31" s="142" t="s">
-        <v>551</v>
-      </c>
-      <c r="E31" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B32" s="142" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="142" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="142" t="s">
-        <v>522</v>
-      </c>
-      <c r="C34" s="142" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="C35" s="142" t="s">
-        <v>534</v>
-      </c>
-      <c r="D35" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="142" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B37" s="142" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="142" t="s">
-        <v>557</v>
-      </c>
-      <c r="D38" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B39" s="142" t="s">
-        <v>488</v>
-      </c>
-      <c r="C39" s="142" t="s">
-        <v>529</v>
-      </c>
-      <c r="D39" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="142" t="s">
-        <v>486</v>
-      </c>
-      <c r="D40" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B41" s="142" t="s">
-        <v>565</v>
-      </c>
-      <c r="C41" s="142" t="s">
-        <v>537</v>
-      </c>
-      <c r="D41" t="s">
-        <v>566</v>
-      </c>
-      <c r="E41" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B42" s="142" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B43" s="142" t="s">
-        <v>573</v>
-      </c>
-      <c r="D43" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="142" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B45" s="142" t="s">
-        <v>560</v>
-      </c>
-      <c r="C45" s="142" t="s">
-        <v>535</v>
-      </c>
-      <c r="D45" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="142" t="s">
-        <v>489</v>
-      </c>
-      <c r="C46" s="142" t="s">
-        <v>540</v>
-      </c>
-      <c r="E46" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="142" t="s">
-        <v>490</v>
-      </c>
-      <c r="C47" s="142" t="s">
-        <v>538</v>
-      </c>
-      <c r="E47" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B48" s="142" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="142" t="s">
-        <v>594</v>
-      </c>
-      <c r="C49" s="142" t="s">
-        <v>530</v>
-      </c>
-      <c r="D49" t="s">
-        <v>569</v>
-      </c>
-      <c r="E49" s="142" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B50" s="142" t="s">
-        <v>492</v>
-      </c>
-      <c r="D50" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="142" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="142" t="s">
-        <v>572</v>
-      </c>
-      <c r="C53" s="142" t="s">
-        <v>539</v>
-      </c>
-      <c r="D53" t="s">
-        <v>571</v>
-      </c>
-      <c r="E53" s="142" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="142" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="142" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="142" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="142" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="142" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="142" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B60" s="142" t="s">
-        <v>501</v>
-      </c>
-      <c r="D60" s="142" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B61" s="142" t="s">
-        <v>498</v>
-      </c>
-      <c r="E61" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B62" s="142" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B63" s="142" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="142" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B65" s="142" t="s">
-        <v>514</v>
-      </c>
-      <c r="C65" s="142" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B66" s="142" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="142" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="142" t="s">
-        <v>580</v>
-      </c>
-      <c r="E68" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B69" s="142" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B70" s="142" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="142" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B72" s="142" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B73" s="142" t="s">
-        <v>508</v>
-      </c>
-      <c r="E73" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B74" s="142" t="s">
-        <v>591</v>
-      </c>
-      <c r="E74" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="142" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B76" s="142" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="142" t="s">
-        <v>510</v>
-      </c>
-      <c r="D77" s="142" t="s">
-        <v>548</v>
-      </c>
-      <c r="E77" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B78" s="142" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="142" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B80" s="142" t="s">
-        <v>578</v>
-      </c>
-      <c r="E80" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B81" s="142" t="s">
-        <v>550</v>
-      </c>
-      <c r="D81" s="142" t="s">
-        <v>575</v>
-      </c>
-      <c r="E81" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B82" s="142" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B83" s="142" t="s">
-        <v>516</v>
-      </c>
-      <c r="C83" s="142" t="s">
-        <v>541</v>
-      </c>
-      <c r="D83" t="s">
-        <v>563</v>
-      </c>
-      <c r="E83" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="142" t="s">
-        <v>531</v>
-      </c>
-      <c r="C84" s="142" t="s">
-        <v>532</v>
-      </c>
-      <c r="D84" t="s">
-        <v>532</v>
-      </c>
-      <c r="E84" s="142" t="s">
-        <v>587</v>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I86" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>4</v>
+      </c>
+      <c r="R86" t="s">
+        <v>173</v>
+      </c>
+      <c r="U86" t="s">
+        <v>12</v>
+      </c>
+      <c r="V86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U87" t="s">
+        <v>13</v>
+      </c>
+      <c r="V87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A94" s="128" t="s">
+        <v>599</v>
+      </c>
+      <c r="G94" t="s">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="G96" t="s">
+        <v>82</v>
+      </c>
+      <c r="H96" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G97" t="s">
+        <v>83</v>
+      </c>
+      <c r="H97" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G98" t="s">
+        <v>84</v>
+      </c>
+      <c r="H98" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G100" t="s">
+        <v>86</v>
+      </c>
+      <c r="H100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G101" t="s">
+        <v>87</v>
+      </c>
+      <c r="H101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G102" t="s">
+        <v>88</v>
+      </c>
+      <c r="H102" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G103" t="s">
+        <v>110</v>
+      </c>
+      <c r="H103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G104" t="s">
+        <v>111</v>
+      </c>
+      <c r="H104" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G106" t="s">
+        <v>113</v>
+      </c>
+      <c r="H106" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G107" t="s">
+        <v>114</v>
+      </c>
+      <c r="H107" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G108" t="s">
+        <v>89</v>
+      </c>
+      <c r="H108" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G109" t="s">
+        <v>90</v>
+      </c>
+      <c r="H109" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G110" t="s">
+        <v>91</v>
+      </c>
+      <c r="H110" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G111" t="s">
+        <v>92</v>
+      </c>
+      <c r="H111" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G112" t="s">
+        <v>93</v>
+      </c>
+      <c r="H112" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G113" t="s">
+        <v>154</v>
+      </c>
+      <c r="H113" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G114" t="s">
+        <v>155</v>
+      </c>
+      <c r="H114" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G115" t="s">
+        <v>94</v>
+      </c>
+      <c r="H115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G116" t="s">
+        <v>95</v>
+      </c>
+      <c r="H116" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G117" t="s">
+        <v>96</v>
+      </c>
+      <c r="H117" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G118" t="s">
+        <v>97</v>
+      </c>
+      <c r="H118" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G119" t="s">
+        <v>98</v>
+      </c>
+      <c r="H119" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G120" t="s">
+        <v>99</v>
+      </c>
+      <c r="H120" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G121" t="s">
+        <v>100</v>
+      </c>
+      <c r="H121" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G122" t="s">
+        <v>102</v>
+      </c>
+      <c r="H122" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G124" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G125" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G126" t="s">
+        <v>32</v>
+      </c>
+      <c r="H126" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G129" t="s">
+        <v>36</v>
+      </c>
+      <c r="H129" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G131" t="s">
+        <v>58</v>
+      </c>
+      <c r="H131" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G132" t="s">
+        <v>59</v>
+      </c>
+      <c r="H132" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G133" t="s">
+        <v>64</v>
+      </c>
+      <c r="H133" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4072,8 +4777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S184"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="C50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -4101,30 +4806,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="F1" s="131" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="F1" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="K1" s="131" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="K1" s="139" t="s">
         <v>421</v>
       </c>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="P1" s="131" t="s">
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="P1" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" s="58"/>
@@ -4265,7 +4970,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="136" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -4277,7 +4982,7 @@
       <c r="G6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="136" t="s">
         <v>329</v>
       </c>
       <c r="I6" s="50" t="s">
@@ -4289,7 +4994,7 @@
       <c r="L6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="136" t="s">
         <v>426</v>
       </c>
       <c r="N6" s="50" t="s">
@@ -4301,7 +5006,7 @@
       <c r="Q6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="128" t="s">
+      <c r="R6" s="136" t="s">
         <v>329</v>
       </c>
       <c r="S6" s="50" t="s">
@@ -4315,7 +5020,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="129"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -4325,7 +5030,7 @@
       <c r="G7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="129"/>
+      <c r="H7" s="137"/>
       <c r="I7" s="50" t="s">
         <v>169</v>
       </c>
@@ -4335,7 +5040,7 @@
       <c r="L7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="129"/>
+      <c r="M7" s="137"/>
       <c r="N7" s="50" t="s">
         <v>169</v>
       </c>
@@ -4345,7 +5050,7 @@
       <c r="Q7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="129"/>
+      <c r="R7" s="137"/>
       <c r="S7" s="50" t="s">
         <v>169</v>
       </c>
@@ -4357,7 +5062,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="129"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -4367,7 +5072,7 @@
       <c r="G8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="129"/>
+      <c r="H8" s="137"/>
       <c r="I8" s="50" t="s">
         <v>169</v>
       </c>
@@ -4377,7 +5082,7 @@
       <c r="L8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="129"/>
+      <c r="M8" s="137"/>
       <c r="N8" s="50" t="s">
         <v>169</v>
       </c>
@@ -4387,7 +5092,7 @@
       <c r="Q8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="129"/>
+      <c r="R8" s="137"/>
       <c r="S8" s="50" t="s">
         <v>169</v>
       </c>
@@ -4399,7 +5104,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="130"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -4409,7 +5114,7 @@
       <c r="G9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="130"/>
+      <c r="H9" s="138"/>
       <c r="I9" s="50" t="s">
         <v>169</v>
       </c>
@@ -4419,7 +5124,7 @@
       <c r="L9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="130"/>
+      <c r="M9" s="138"/>
       <c r="N9" s="50" t="s">
         <v>169</v>
       </c>
@@ -4429,7 +5134,7 @@
       <c r="Q9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="130"/>
+      <c r="R9" s="138"/>
       <c r="S9" s="50" t="s">
         <v>169</v>
       </c>
@@ -4475,7 +5180,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="136" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -4487,7 +5192,7 @@
       <c r="G11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="128" t="s">
+      <c r="H11" s="136" t="s">
         <v>330</v>
       </c>
       <c r="I11" s="50" t="s">
@@ -4499,7 +5204,7 @@
       <c r="L11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="128" t="s">
+      <c r="M11" s="136" t="s">
         <v>330</v>
       </c>
       <c r="N11" s="50" t="s">
@@ -4511,7 +5216,7 @@
       <c r="Q11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R11" s="128" t="s">
+      <c r="R11" s="136" t="s">
         <v>330</v>
       </c>
       <c r="S11" s="50" t="s">
@@ -4525,7 +5230,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -4535,7 +5240,7 @@
       <c r="G12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="130"/>
+      <c r="H12" s="138"/>
       <c r="I12" s="50" t="s">
         <v>175</v>
       </c>
@@ -4545,7 +5250,7 @@
       <c r="L12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M12" s="130"/>
+      <c r="M12" s="138"/>
       <c r="N12" s="50" t="s">
         <v>175</v>
       </c>
@@ -4555,7 +5260,7 @@
       <c r="Q12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="R12" s="130"/>
+      <c r="R12" s="138"/>
       <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -4649,7 +5354,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="136" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -4661,7 +5366,7 @@
       <c r="G15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="128" t="s">
+      <c r="H15" s="136" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="50" t="s">
@@ -4673,7 +5378,7 @@
       <c r="L15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="128" t="s">
+      <c r="M15" s="136" t="s">
         <v>331</v>
       </c>
       <c r="N15" s="50" t="s">
@@ -4685,7 +5390,7 @@
       <c r="Q15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R15" s="128" t="s">
+      <c r="R15" s="136" t="s">
         <v>331</v>
       </c>
       <c r="S15" s="50" t="s">
@@ -4699,7 +5404,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="129"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -4709,7 +5414,7 @@
       <c r="G16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="129"/>
+      <c r="H16" s="137"/>
       <c r="I16" s="50" t="s">
         <v>181</v>
       </c>
@@ -4719,7 +5424,7 @@
       <c r="L16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="129"/>
+      <c r="M16" s="137"/>
       <c r="N16" s="50" t="s">
         <v>181</v>
       </c>
@@ -4729,7 +5434,7 @@
       <c r="Q16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="129"/>
+      <c r="R16" s="137"/>
       <c r="S16" s="50" t="s">
         <v>181</v>
       </c>
@@ -4741,7 +5446,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="129"/>
+      <c r="C17" s="137"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -4751,7 +5456,7 @@
       <c r="G17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="129"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="50" t="s">
         <v>169</v>
       </c>
@@ -4761,7 +5466,7 @@
       <c r="L17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="129"/>
+      <c r="M17" s="137"/>
       <c r="N17" s="50" t="s">
         <v>169</v>
       </c>
@@ -4771,7 +5476,7 @@
       <c r="Q17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="129"/>
+      <c r="R17" s="137"/>
       <c r="S17" s="50" t="s">
         <v>169</v>
       </c>
@@ -4783,7 +5488,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="130"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -4793,7 +5498,7 @@
       <c r="G18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="130"/>
+      <c r="H18" s="138"/>
       <c r="I18" s="50" t="s">
         <v>169</v>
       </c>
@@ -4803,7 +5508,7 @@
       <c r="L18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="130"/>
+      <c r="M18" s="138"/>
       <c r="N18" s="50" t="s">
         <v>169</v>
       </c>
@@ -4813,7 +5518,7 @@
       <c r="Q18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="R18" s="130"/>
+      <c r="R18" s="138"/>
       <c r="S18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5009,7 +5714,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="136" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -5029,7 +5734,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="130"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -5190,7 +5895,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="136" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -5202,7 +5907,7 @@
       <c r="G28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="128" t="s">
+      <c r="H28" s="136" t="s">
         <v>339</v>
       </c>
       <c r="I28" s="50" t="s">
@@ -5214,7 +5919,7 @@
       <c r="L28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="128" t="s">
+      <c r="M28" s="136" t="s">
         <v>339</v>
       </c>
       <c r="N28" s="50" t="s">
@@ -5226,7 +5931,7 @@
       <c r="Q28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R28" s="128" t="s">
+      <c r="R28" s="136" t="s">
         <v>339</v>
       </c>
       <c r="S28" s="50" t="s">
@@ -5240,7 +5945,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="129"/>
+      <c r="C29" s="137"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5250,7 +5955,7 @@
       <c r="G29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="129"/>
+      <c r="H29" s="137"/>
       <c r="I29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5260,7 +5965,7 @@
       <c r="L29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="129"/>
+      <c r="M29" s="137"/>
       <c r="N29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5270,7 +5975,7 @@
       <c r="Q29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="129"/>
+      <c r="R29" s="137"/>
       <c r="S29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5282,7 +5987,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="129"/>
+      <c r="C30" s="137"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -5292,7 +5997,7 @@
       <c r="G30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="129"/>
+      <c r="H30" s="137"/>
       <c r="I30" s="50" t="s">
         <v>181</v>
       </c>
@@ -5302,7 +6007,7 @@
       <c r="L30" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M30" s="129"/>
+      <c r="M30" s="137"/>
       <c r="N30" s="50" t="s">
         <v>181</v>
       </c>
@@ -5312,7 +6017,7 @@
       <c r="Q30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="R30" s="129"/>
+      <c r="R30" s="137"/>
       <c r="S30" s="50" t="s">
         <v>181</v>
       </c>
@@ -5324,7 +6029,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="130"/>
+      <c r="C31" s="138"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -5334,7 +6039,7 @@
       <c r="G31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="130"/>
+      <c r="H31" s="138"/>
       <c r="I31" s="50" t="s">
         <v>181</v>
       </c>
@@ -5344,7 +6049,7 @@
       <c r="L31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M31" s="130"/>
+      <c r="M31" s="138"/>
       <c r="N31" s="50" t="s">
         <v>181</v>
       </c>
@@ -5354,7 +6059,7 @@
       <c r="Q31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="R31" s="130"/>
+      <c r="R31" s="138"/>
       <c r="S31" s="50" t="s">
         <v>181</v>
       </c>
@@ -5382,7 +6087,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="136" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -5401,7 +6106,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="129"/>
+      <c r="C34" s="137"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -5427,7 +6132,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="130"/>
+      <c r="C35" s="138"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -5453,7 +6158,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="136" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -5481,7 +6186,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="129"/>
+      <c r="C37" s="137"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -5507,7 +6212,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="130"/>
+      <c r="C38" s="138"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -5622,7 +6327,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="134" t="s">
+      <c r="C42" s="129" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -5634,7 +6339,7 @@
       <c r="G42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="134" t="s">
+      <c r="H42" s="129" t="s">
         <v>205</v>
       </c>
       <c r="I42" s="51" t="s">
@@ -5646,7 +6351,7 @@
       <c r="L42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M42" s="134" t="s">
+      <c r="M42" s="129" t="s">
         <v>205</v>
       </c>
       <c r="N42" s="51" t="s">
@@ -5658,7 +6363,7 @@
       <c r="Q42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="R42" s="134" t="s">
+      <c r="R42" s="129" t="s">
         <v>205</v>
       </c>
       <c r="S42" s="51" t="s">
@@ -5672,7 +6377,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="135"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -5682,7 +6387,7 @@
       <c r="G43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="135"/>
+      <c r="H43" s="130"/>
       <c r="I43" s="51" t="s">
         <v>181</v>
       </c>
@@ -5692,7 +6397,7 @@
       <c r="L43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="136"/>
+      <c r="M43" s="131"/>
       <c r="N43" s="51" t="s">
         <v>181</v>
       </c>
@@ -5702,7 +6407,7 @@
       <c r="Q43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="135"/>
+      <c r="R43" s="130"/>
       <c r="S43" s="51" t="s">
         <v>181</v>
       </c>
@@ -5714,7 +6419,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="135"/>
+      <c r="C44" s="130"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -5724,7 +6429,7 @@
       <c r="G44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="135"/>
+      <c r="H44" s="130"/>
       <c r="I44" s="51" t="s">
         <v>181</v>
       </c>
@@ -5744,7 +6449,7 @@
       <c r="Q44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="R44" s="135"/>
+      <c r="R44" s="130"/>
       <c r="S44" s="51" t="s">
         <v>181</v>
       </c>
@@ -5756,7 +6461,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="136"/>
+      <c r="C45" s="131"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -5766,7 +6471,7 @@
       <c r="G45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H45" s="136"/>
+      <c r="H45" s="131"/>
       <c r="I45" s="51" t="s">
         <v>181</v>
       </c>
@@ -5786,7 +6491,7 @@
       <c r="Q45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="R45" s="136"/>
+      <c r="R45" s="131"/>
       <c r="S45" s="51" t="s">
         <v>181</v>
       </c>
@@ -5882,7 +6587,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="134" t="s">
+      <c r="C48" s="129" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -5894,7 +6599,7 @@
       <c r="G48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="134" t="s">
+      <c r="H48" s="129" t="s">
         <v>343</v>
       </c>
       <c r="I48" s="51" t="s">
@@ -5906,7 +6611,7 @@
       <c r="L48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M48" s="134" t="s">
+      <c r="M48" s="129" t="s">
         <v>343</v>
       </c>
       <c r="N48" s="51" t="s">
@@ -5918,7 +6623,7 @@
       <c r="Q48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R48" s="134" t="s">
+      <c r="R48" s="129" t="s">
         <v>343</v>
       </c>
       <c r="S48" s="51" t="s">
@@ -5932,7 +6637,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="136"/>
+      <c r="C49" s="131"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -5942,7 +6647,7 @@
       <c r="G49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="136"/>
+      <c r="H49" s="131"/>
       <c r="I49" s="51" t="s">
         <v>185</v>
       </c>
@@ -5952,7 +6657,7 @@
       <c r="L49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="M49" s="136"/>
+      <c r="M49" s="131"/>
       <c r="N49" s="51" t="s">
         <v>185</v>
       </c>
@@ -5962,7 +6667,7 @@
       <c r="Q49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R49" s="136"/>
+      <c r="R49" s="131"/>
       <c r="S49" s="51" t="s">
         <v>185</v>
       </c>
@@ -6336,7 +7041,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="134" t="s">
+      <c r="C58" s="129" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -6348,7 +7053,7 @@
       <c r="G58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="134" t="s">
+      <c r="H58" s="129" t="s">
         <v>413</v>
       </c>
       <c r="I58" s="51" t="s">
@@ -6360,7 +7065,7 @@
       <c r="L58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="M58" s="134" t="s">
+      <c r="M58" s="129" t="s">
         <v>413</v>
       </c>
       <c r="N58" s="51" t="s">
@@ -6372,7 +7077,7 @@
       <c r="Q58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="R58" s="134" t="s">
+      <c r="R58" s="129" t="s">
         <v>413</v>
       </c>
       <c r="S58" s="51" t="s">
@@ -6386,7 +7091,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="136"/>
+      <c r="C59" s="131"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -6396,7 +7101,7 @@
       <c r="G59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H59" s="136"/>
+      <c r="H59" s="131"/>
       <c r="I59" s="51" t="s">
         <v>169</v>
       </c>
@@ -6406,7 +7111,7 @@
       <c r="L59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M59" s="136"/>
+      <c r="M59" s="131"/>
       <c r="N59" s="51" t="s">
         <v>169</v>
       </c>
@@ -6416,7 +7121,7 @@
       <c r="Q59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="R59" s="136"/>
+      <c r="R59" s="131"/>
       <c r="S59" s="51" t="s">
         <v>169</v>
       </c>
@@ -7741,7 +8446,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="137" t="s">
+      <c r="C92" s="132" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -7753,7 +8458,7 @@
       <c r="G92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H92" s="137" t="s">
+      <c r="H92" s="132" t="s">
         <v>427</v>
       </c>
       <c r="I92" s="52" t="s">
@@ -7765,7 +8470,7 @@
       <c r="L92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="M92" s="137" t="s">
+      <c r="M92" s="132" t="s">
         <v>427</v>
       </c>
       <c r="N92" s="52" t="s">
@@ -7777,7 +8482,7 @@
       <c r="Q92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R92" s="137" t="s">
+      <c r="R92" s="132" t="s">
         <v>427</v>
       </c>
       <c r="S92" s="52" t="s">
@@ -7791,7 +8496,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="138"/>
+      <c r="C93" s="133"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -7801,7 +8506,7 @@
       <c r="G93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H93" s="138"/>
+      <c r="H93" s="133"/>
       <c r="I93" s="52" t="s">
         <v>185</v>
       </c>
@@ -7811,7 +8516,7 @@
       <c r="L93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M93" s="138"/>
+      <c r="M93" s="133"/>
       <c r="N93" s="52" t="s">
         <v>185</v>
       </c>
@@ -7821,7 +8526,7 @@
       <c r="Q93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R93" s="138"/>
+      <c r="R93" s="133"/>
       <c r="S93" s="52" t="s">
         <v>185</v>
       </c>
@@ -8716,7 +9421,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="132" t="s">
+      <c r="C117" s="134" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -8728,7 +9433,7 @@
       <c r="G117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="H117" s="132" t="s">
+      <c r="H117" s="134" t="s">
         <v>273</v>
       </c>
       <c r="I117" s="53" t="s">
@@ -8740,7 +9445,7 @@
       <c r="L117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="M117" s="132" t="s">
+      <c r="M117" s="134" t="s">
         <v>273</v>
       </c>
       <c r="N117" s="53" t="s">
@@ -8752,7 +9457,7 @@
       <c r="Q117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="R117" s="132" t="s">
+      <c r="R117" s="134" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="53" t="s">
@@ -8766,7 +9471,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="133"/>
+      <c r="C118" s="135"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -8776,7 +9481,7 @@
       <c r="G118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H118" s="133"/>
+      <c r="H118" s="135"/>
       <c r="I118" s="53" t="s">
         <v>175</v>
       </c>
@@ -8786,7 +9491,7 @@
       <c r="L118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="M118" s="133"/>
+      <c r="M118" s="135"/>
       <c r="N118" s="53" t="s">
         <v>175</v>
       </c>
@@ -8796,7 +9501,7 @@
       <c r="Q118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="R118" s="133"/>
+      <c r="R118" s="135"/>
       <c r="S118" s="53" t="s">
         <v>434</v>
       </c>
@@ -10256,11 +10961,28 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M92:M93"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="H92:H93"/>
     <mergeCell ref="H117:H118"/>
@@ -10277,28 +10999,11 @@
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C117:C118"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:S71 F72:G72 I72:L72 N72:Q72 S72 F73:S163">
@@ -10329,12 +11034,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
@@ -10377,7 +11082,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="136" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -10391,7 +11096,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="129"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -10403,7 +11108,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="129"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -10415,7 +11120,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="130"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -10437,7 +11142,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="136" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -10451,7 +11156,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -10487,7 +11192,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="136" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -10501,7 +11206,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="129"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -10513,7 +11218,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="129"/>
+      <c r="C17" s="137"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -10525,7 +11230,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="130"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -10593,7 +11298,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="136" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -10607,7 +11312,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="130"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -10657,7 +11362,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="136" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -10671,7 +11376,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="129"/>
+      <c r="C29" s="137"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -10683,7 +11388,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="129"/>
+      <c r="C30" s="137"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -10695,7 +11400,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="130"/>
+      <c r="C31" s="138"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -10717,7 +11422,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="136" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -10731,7 +11436,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="129"/>
+      <c r="C34" s="137"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -10743,7 +11448,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="130"/>
+      <c r="C35" s="138"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -10755,7 +11460,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="136" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -10769,7 +11474,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="129"/>
+      <c r="C37" s="137"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -10781,7 +11486,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="130"/>
+      <c r="C38" s="138"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -10819,7 +11524,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="134" t="s">
+      <c r="C42" s="129" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -10833,7 +11538,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="135"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -10845,7 +11550,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="135"/>
+      <c r="C44" s="130"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -10857,7 +11562,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="136"/>
+      <c r="C45" s="131"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -10893,7 +11598,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="134" t="s">
+      <c r="C48" s="129" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -10907,7 +11612,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="136"/>
+      <c r="C49" s="131"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -11031,7 +11736,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="134" t="s">
+      <c r="C58" s="129" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -11045,7 +11750,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="136"/>
+      <c r="C59" s="131"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -11479,7 +12184,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="137" t="s">
+      <c r="C92" s="132" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -11493,7 +12198,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="138"/>
+      <c r="C93" s="133"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -11771,7 +12476,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="132" t="s">
+      <c r="C117" s="134" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -11785,7 +12490,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="133"/>
+      <c r="C118" s="135"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -12315,6 +13020,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C23:C24"/>
@@ -12322,12 +13033,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12338,8 +13043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -12352,12 +13057,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -12406,7 +13111,7 @@
       <c r="B6" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="140" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="127" t="s">
@@ -12420,7 +13125,7 @@
       <c r="B7" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="141"/>
+      <c r="C7" s="142"/>
       <c r="D7" s="127" t="s">
         <v>169</v>
       </c>
@@ -12432,7 +13137,7 @@
       <c r="B8" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="141"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="127" t="s">
         <v>169</v>
       </c>
@@ -12444,7 +13149,7 @@
       <c r="B9" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="140"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="127" t="s">
         <v>169</v>
       </c>
@@ -12466,7 +13171,7 @@
       <c r="B11" s="126" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="127" t="s">
@@ -12480,7 +13185,7 @@
       <c r="B12" s="126" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="141"/>
       <c r="D12" s="127" t="s">
         <v>175</v>
       </c>
@@ -12516,7 +13221,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="136" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -12530,7 +13235,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="129"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -12542,7 +13247,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="129"/>
+      <c r="C17" s="137"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -12554,7 +13259,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="130"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -12660,7 +13365,7 @@
       <c r="B26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="136" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="50" t="s">
@@ -12674,7 +13379,7 @@
       <c r="B27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="129"/>
+      <c r="C27" s="137"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -12686,7 +13391,7 @@
       <c r="B28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="129"/>
+      <c r="C28" s="137"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -12698,7 +13403,7 @@
       <c r="B29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="130"/>
+      <c r="C29" s="138"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -12736,7 +13441,7 @@
       <c r="B33" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="134" t="s">
+      <c r="C33" s="129" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="51" t="s">
@@ -12750,7 +13455,7 @@
       <c r="B34" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="135"/>
+      <c r="C34" s="130"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -12762,7 +13467,7 @@
       <c r="B35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="135"/>
+      <c r="C35" s="130"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -12774,7 +13479,7 @@
       <c r="B36" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="136"/>
+      <c r="C36" s="131"/>
       <c r="D36" s="51" t="s">
         <v>181</v>
       </c>
@@ -12810,7 +13515,7 @@
       <c r="B39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="134" t="s">
+      <c r="C39" s="129" t="s">
         <v>343</v>
       </c>
       <c r="D39" s="51" t="s">
@@ -12824,7 +13529,7 @@
       <c r="B40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="136"/>
+      <c r="C40" s="131"/>
       <c r="D40" s="51" t="s">
         <v>185</v>
       </c>
@@ -12934,7 +13639,7 @@
       <c r="B48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="134" t="s">
+      <c r="C48" s="129" t="s">
         <v>413</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -12948,7 +13653,7 @@
       <c r="B49" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C49" s="136"/>
+      <c r="C49" s="131"/>
       <c r="D49" s="51" t="s">
         <v>169</v>
       </c>
@@ -13643,7 +14348,7 @@
       <c r="B104" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C104" s="132" t="s">
+      <c r="C104" s="134" t="s">
         <v>273</v>
       </c>
       <c r="D104" s="53" t="s">
@@ -13657,7 +14362,7 @@
       <c r="B105" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C105" s="133"/>
+      <c r="C105" s="135"/>
       <c r="D105" s="53" t="s">
         <v>175</v>
       </c>
@@ -14100,12 +14805,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="139" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -14154,7 +14859,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="136" t="s">
         <v>426</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -14168,7 +14873,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="129"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -14180,7 +14885,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="129"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -14192,7 +14897,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="130"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -14214,7 +14919,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="136" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -14228,7 +14933,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -14264,7 +14969,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="136" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -14278,7 +14983,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="129"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -14290,7 +14995,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="129"/>
+      <c r="C17" s="137"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -14302,7 +15007,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="130"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -14394,7 +15099,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="136" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -14408,7 +15113,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="129"/>
+      <c r="C26" s="137"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -14420,7 +15125,7 @@
       <c r="B27" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C27" s="129"/>
+      <c r="C27" s="137"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -14432,7 +15137,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="130"/>
+      <c r="C28" s="138"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -14470,7 +15175,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="134" t="s">
+      <c r="C32" s="129" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -14484,7 +15189,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="136"/>
+      <c r="C33" s="131"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -14544,7 +15249,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="134" t="s">
+      <c r="C38" s="129" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -14558,7 +15263,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="136"/>
+      <c r="C39" s="131"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -14654,7 +15359,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="134" t="s">
+      <c r="C46" s="129" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -14668,7 +15373,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="136"/>
+      <c r="C47" s="131"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -15002,7 +15707,7 @@
       <c r="B73" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="137" t="s">
+      <c r="C73" s="132" t="s">
         <v>427</v>
       </c>
       <c r="D73" s="52" t="s">
@@ -15016,7 +15721,7 @@
       <c r="B74" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="138"/>
+      <c r="C74" s="133"/>
       <c r="D74" s="52" t="s">
         <v>185</v>
       </c>
@@ -15271,7 +15976,7 @@
       <c r="B96" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="132" t="s">
+      <c r="C96" s="134" t="s">
         <v>273</v>
       </c>
       <c r="D96" s="53" t="s">
@@ -15285,7 +15990,7 @@
       <c r="B97" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="133"/>
+      <c r="C97" s="135"/>
       <c r="D97" s="53" t="s">
         <v>175</v>
       </c>
@@ -15817,16 +16522,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15851,12 +16556,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -15905,7 +16610,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="136" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -15919,7 +16624,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="129"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -15931,7 +16636,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="129"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -15943,7 +16648,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="130"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -15965,7 +16670,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="136" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -15979,7 +16684,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -16013,7 +16718,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="136" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -16027,7 +16732,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="129"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -16039,7 +16744,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="129"/>
+      <c r="C17" s="137"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -16051,7 +16756,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="130"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -16143,7 +16848,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="136" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -16157,7 +16862,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="129"/>
+      <c r="C26" s="137"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -16169,7 +16874,7 @@
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="129"/>
+      <c r="C27" s="137"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -16181,7 +16886,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="130"/>
+      <c r="C28" s="138"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -16219,7 +16924,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="134" t="s">
+      <c r="C32" s="129" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -16233,7 +16938,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="135"/>
+      <c r="C33" s="130"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -16245,7 +16950,7 @@
       <c r="B34" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="135"/>
+      <c r="C34" s="130"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -16257,7 +16962,7 @@
       <c r="B35" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="136"/>
+      <c r="C35" s="131"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -16293,7 +16998,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="134" t="s">
+      <c r="C38" s="129" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -16307,7 +17012,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="136"/>
+      <c r="C39" s="131"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -16403,7 +17108,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="134" t="s">
+      <c r="C46" s="129" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -16417,7 +17122,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="136"/>
+      <c r="C47" s="131"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -16737,7 +17442,7 @@
       <c r="B72" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="137" t="s">
+      <c r="C72" s="132" t="s">
         <v>427</v>
       </c>
       <c r="D72" s="52" t="s">
@@ -16751,7 +17456,7 @@
       <c r="B73" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="138"/>
+      <c r="C73" s="133"/>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
@@ -16982,7 +17687,7 @@
       <c r="B93" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="132" t="s">
+      <c r="C93" s="134" t="s">
         <v>273</v>
       </c>
       <c r="D93" s="53" t="s">
@@ -16996,7 +17701,7 @@
       <c r="B94" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="133"/>
+      <c r="C94" s="135"/>
       <c r="D94" s="53" t="s">
         <v>434</v>
       </c>
@@ -17354,16 +18059,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CompetencesCPGE2021_Simplifiees_XP.xlsx
+++ b/CompetencesCPGE2021_Simplifiees_XP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C649BB79-9A3D-4542-A6D0-CEEDF0A38197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED97375-AEF0-41CC-9EA6-457B620285B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11480" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RéflexionsXP" sheetId="44" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
+    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
     <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="602">
   <si>
     <t>A1-01</t>
   </si>
@@ -2149,14 +2149,20 @@
     <t>Linéariser une équation, simplifier un modèle</t>
   </si>
   <si>
-    <t>Compétences expérimentales</t>
+    <t>Proposer et mettre en œuvre une démarche de résolution</t>
+  </si>
+  <si>
+    <t>Compétences expérimentales et transversales</t>
+  </si>
+  <si>
+    <t>Modéliser les actions mécaniques locales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2364,8 +2370,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2573,6 +2586,12 @@
         <fgColor rgb="FFD2FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -2648,7 +2667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3030,6 +3049,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3045,24 +3085,6 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3072,22 +3094,14 @@
     <xf numFmtId="0" fontId="27" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="0"/>
@@ -3440,42 +3454,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA8FD29-6739-43DF-AA05-FBA91CDC0FC0}">
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B122" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" style="128" customWidth="1"/>
     <col min="2" max="2" width="61.6328125" style="128" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="128" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="15.26953125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="128" customWidth="1"/>
+    <col min="4" max="5" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="128" t="s">
         <v>522</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="129" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="143" t="s">
+      <c r="D1" s="129" t="s">
         <v>544</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="129" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="129" t="s">
         <v>523</v>
       </c>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="129" t="s">
         <v>545</v>
       </c>
-      <c r="E2" s="143" t="s">
+      <c r="E2" s="129" t="s">
         <v>575</v>
       </c>
     </row>
@@ -3494,7 +3508,7 @@
       <c r="D4" t="s">
         <v>546</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="144" t="s">
         <v>47</v>
       </c>
       <c r="H4" t="s">
@@ -3503,9 +3517,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="128" t="s">
-        <v>471</v>
-      </c>
-      <c r="D5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D5" s="145" t="s">
         <v>560</v>
       </c>
     </row>
@@ -3523,6 +3537,12 @@
       <c r="B8" s="128" t="s">
         <v>474</v>
       </c>
+      <c r="G8" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="128" t="s">
@@ -3571,7 +3591,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="128" t="s">
-        <v>475</v>
+        <v>599</v>
+      </c>
+      <c r="G15" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -3599,7 +3625,7 @@
       <c r="E19" t="s">
         <v>535</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="144" t="s">
         <v>43</v>
       </c>
       <c r="H19" t="s">
@@ -3630,6 +3656,12 @@
       <c r="D21" t="s">
         <v>555</v>
       </c>
+      <c r="G21" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="128" t="s">
@@ -3672,7 +3704,7 @@
       <c r="H24" t="s">
         <v>220</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="144" t="s">
         <v>45</v>
       </c>
       <c r="J24" t="s">
@@ -3730,7 +3762,7 @@
       <c r="E30" t="s">
         <v>581</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="144" t="s">
         <v>46</v>
       </c>
       <c r="H30" t="s">
@@ -3788,7 +3820,7 @@
       <c r="D35" t="s">
         <v>557</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="144" t="s">
         <v>37</v>
       </c>
       <c r="H35" t="s">
@@ -3799,7 +3831,7 @@
       <c r="B36" s="128" t="s">
         <v>519</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="144" t="s">
         <v>40</v>
       </c>
       <c r="H36" t="s">
@@ -3841,7 +3873,7 @@
       <c r="D39" t="s">
         <v>566</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="144" t="s">
         <v>39</v>
       </c>
       <c r="H39" t="s">
@@ -3895,7 +3927,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="128" t="s">
         <v>465</v>
       </c>
@@ -4026,7 +4058,7 @@
       <c r="E54" s="128" t="s">
         <v>595</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="144" t="s">
         <v>61</v>
       </c>
       <c r="H54" t="s">
@@ -4225,7 +4257,7 @@
       <c r="E75" t="s">
         <v>562</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="144" t="s">
         <v>50</v>
       </c>
       <c r="H75" t="s">
@@ -4272,7 +4304,7 @@
       <c r="E79" t="s">
         <v>588</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="144" t="s">
         <v>49</v>
       </c>
       <c r="H79" t="s">
@@ -4320,7 +4352,7 @@
       <c r="T82" t="s">
         <v>174</v>
       </c>
-      <c r="U82" t="s">
+      <c r="U82" s="144" t="s">
         <v>8</v>
       </c>
       <c r="V82" t="s">
@@ -4454,7 +4486,7 @@
       <c r="R86" t="s">
         <v>173</v>
       </c>
-      <c r="U86" t="s">
+      <c r="U86" s="144" t="s">
         <v>12</v>
       </c>
       <c r="V86" t="s">
@@ -4462,7 +4494,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="U87" t="s">
+      <c r="U87" s="144" t="s">
         <v>13</v>
       </c>
       <c r="V87" t="s">
@@ -4471,7 +4503,7 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" s="128" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G94" t="s">
         <v>80</v>
@@ -4560,212 +4592,204 @@
         <v>270</v>
       </c>
     </row>
+    <row r="105" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G105" t="s">
+        <v>113</v>
+      </c>
+      <c r="H105" t="s">
+        <v>272</v>
+      </c>
+    </row>
     <row r="106" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G106" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H106" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G107" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="H107" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G108" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H108" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G109" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H109" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G110" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H110" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G111" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H111" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G112" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="H112" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G113" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H113" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G114" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="H114" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G115" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H115" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G116" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G117" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H117" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G118" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H118" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G119" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H119" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G120" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H120" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G121" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H121" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G122" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="H122" t="s">
-        <v>294</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G124" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H124" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="125" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H125" t="s">
-        <v>206</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G126" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H126" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G127" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H127" t="s">
-        <v>407</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G128" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H128" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G129" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H129" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G131" t="s">
-        <v>58</v>
-      </c>
-      <c r="H131" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G132" t="s">
-        <v>59</v>
-      </c>
-      <c r="H132" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G133" t="s">
-        <v>64</v>
-      </c>
-      <c r="H133" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4777,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S184"/>
   <sheetViews>
-    <sheetView topLeftCell="C50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:G1048576"/>
+    <sheetView topLeftCell="B78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -4806,30 +4830,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="F1" s="139" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="F1" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="K1" s="139" t="s">
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="K1" s="133" t="s">
         <v>421</v>
       </c>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="P1" s="139" t="s">
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="P1" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" s="58"/>
@@ -4970,7 +4994,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="130" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -4982,7 +5006,7 @@
       <c r="G6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="130" t="s">
         <v>329</v>
       </c>
       <c r="I6" s="50" t="s">
@@ -4994,7 +5018,7 @@
       <c r="L6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="130" t="s">
         <v>426</v>
       </c>
       <c r="N6" s="50" t="s">
@@ -5006,7 +5030,7 @@
       <c r="Q6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="136" t="s">
+      <c r="R6" s="130" t="s">
         <v>329</v>
       </c>
       <c r="S6" s="50" t="s">
@@ -5020,7 +5044,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="137"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5030,7 +5054,7 @@
       <c r="G7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="137"/>
+      <c r="H7" s="131"/>
       <c r="I7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5040,7 +5064,7 @@
       <c r="L7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="137"/>
+      <c r="M7" s="131"/>
       <c r="N7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5050,7 +5074,7 @@
       <c r="Q7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="137"/>
+      <c r="R7" s="131"/>
       <c r="S7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5062,7 +5086,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="137"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5072,7 +5096,7 @@
       <c r="G8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="137"/>
+      <c r="H8" s="131"/>
       <c r="I8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5082,7 +5106,7 @@
       <c r="L8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="137"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5092,7 +5116,7 @@
       <c r="Q8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="137"/>
+      <c r="R8" s="131"/>
       <c r="S8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5104,7 +5128,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="138"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5114,7 +5138,7 @@
       <c r="G9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="138"/>
+      <c r="H9" s="132"/>
       <c r="I9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5124,7 +5148,7 @@
       <c r="L9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="138"/>
+      <c r="M9" s="132"/>
       <c r="N9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5134,7 +5158,7 @@
       <c r="Q9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="138"/>
+      <c r="R9" s="132"/>
       <c r="S9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5180,7 +5204,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="130" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -5192,7 +5216,7 @@
       <c r="G11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="136" t="s">
+      <c r="H11" s="130" t="s">
         <v>330</v>
       </c>
       <c r="I11" s="50" t="s">
@@ -5204,7 +5228,7 @@
       <c r="L11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="136" t="s">
+      <c r="M11" s="130" t="s">
         <v>330</v>
       </c>
       <c r="N11" s="50" t="s">
@@ -5216,7 +5240,7 @@
       <c r="Q11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R11" s="136" t="s">
+      <c r="R11" s="130" t="s">
         <v>330</v>
       </c>
       <c r="S11" s="50" t="s">
@@ -5230,7 +5254,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -5240,7 +5264,7 @@
       <c r="G12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="138"/>
+      <c r="H12" s="132"/>
       <c r="I12" s="50" t="s">
         <v>175</v>
       </c>
@@ -5250,7 +5274,7 @@
       <c r="L12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M12" s="138"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="50" t="s">
         <v>175</v>
       </c>
@@ -5260,7 +5284,7 @@
       <c r="Q12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="R12" s="138"/>
+      <c r="R12" s="132"/>
       <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -5354,7 +5378,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="130" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -5366,7 +5390,7 @@
       <c r="G15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="136" t="s">
+      <c r="H15" s="130" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="50" t="s">
@@ -5378,7 +5402,7 @@
       <c r="L15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="136" t="s">
+      <c r="M15" s="130" t="s">
         <v>331</v>
       </c>
       <c r="N15" s="50" t="s">
@@ -5390,7 +5414,7 @@
       <c r="Q15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R15" s="136" t="s">
+      <c r="R15" s="130" t="s">
         <v>331</v>
       </c>
       <c r="S15" s="50" t="s">
@@ -5404,7 +5428,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5414,7 +5438,7 @@
       <c r="G16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="137"/>
+      <c r="H16" s="131"/>
       <c r="I16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5424,7 +5448,7 @@
       <c r="L16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="137"/>
+      <c r="M16" s="131"/>
       <c r="N16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5434,7 +5458,7 @@
       <c r="Q16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="137"/>
+      <c r="R16" s="131"/>
       <c r="S16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5446,7 +5470,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="137"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5456,7 +5480,7 @@
       <c r="G17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="137"/>
+      <c r="H17" s="131"/>
       <c r="I17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5466,7 +5490,7 @@
       <c r="L17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="137"/>
+      <c r="M17" s="131"/>
       <c r="N17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5476,7 +5500,7 @@
       <c r="Q17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="137"/>
+      <c r="R17" s="131"/>
       <c r="S17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5488,7 +5512,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5498,7 +5522,7 @@
       <c r="G18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="138"/>
+      <c r="H18" s="132"/>
       <c r="I18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5508,7 +5532,7 @@
       <c r="L18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="138"/>
+      <c r="M18" s="132"/>
       <c r="N18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5518,7 +5542,7 @@
       <c r="Q18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="R18" s="138"/>
+      <c r="R18" s="132"/>
       <c r="S18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5714,7 +5738,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="130" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -5734,7 +5758,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="138"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -5895,7 +5919,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="130" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -5907,7 +5931,7 @@
       <c r="G28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="136" t="s">
+      <c r="H28" s="130" t="s">
         <v>339</v>
       </c>
       <c r="I28" s="50" t="s">
@@ -5919,7 +5943,7 @@
       <c r="L28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="136" t="s">
+      <c r="M28" s="130" t="s">
         <v>339</v>
       </c>
       <c r="N28" s="50" t="s">
@@ -5931,7 +5955,7 @@
       <c r="Q28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R28" s="136" t="s">
+      <c r="R28" s="130" t="s">
         <v>339</v>
       </c>
       <c r="S28" s="50" t="s">
@@ -5945,7 +5969,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="137"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5955,7 +5979,7 @@
       <c r="G29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="137"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5965,7 +5989,7 @@
       <c r="L29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="137"/>
+      <c r="M29" s="131"/>
       <c r="N29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5975,7 +5999,7 @@
       <c r="Q29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="137"/>
+      <c r="R29" s="131"/>
       <c r="S29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5987,7 +6011,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="137"/>
+      <c r="C30" s="131"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -5997,7 +6021,7 @@
       <c r="G30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="137"/>
+      <c r="H30" s="131"/>
       <c r="I30" s="50" t="s">
         <v>181</v>
       </c>
@@ -6007,7 +6031,7 @@
       <c r="L30" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M30" s="137"/>
+      <c r="M30" s="131"/>
       <c r="N30" s="50" t="s">
         <v>181</v>
       </c>
@@ -6017,7 +6041,7 @@
       <c r="Q30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="R30" s="137"/>
+      <c r="R30" s="131"/>
       <c r="S30" s="50" t="s">
         <v>181</v>
       </c>
@@ -6029,7 +6053,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="138"/>
+      <c r="C31" s="132"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6039,7 +6063,7 @@
       <c r="G31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="138"/>
+      <c r="H31" s="132"/>
       <c r="I31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6049,7 +6073,7 @@
       <c r="L31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M31" s="138"/>
+      <c r="M31" s="132"/>
       <c r="N31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6059,7 +6083,7 @@
       <c r="Q31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="R31" s="138"/>
+      <c r="R31" s="132"/>
       <c r="S31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6087,7 +6111,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="130" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -6106,7 +6130,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="137"/>
+      <c r="C34" s="131"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -6132,7 +6156,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="138"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -6158,7 +6182,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="136" t="s">
+      <c r="C36" s="130" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -6186,7 +6210,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="137"/>
+      <c r="C37" s="131"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -6212,7 +6236,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="138"/>
+      <c r="C38" s="132"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -6327,7 +6351,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="129" t="s">
+      <c r="C42" s="136" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -6339,7 +6363,7 @@
       <c r="G42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="129" t="s">
+      <c r="H42" s="136" t="s">
         <v>205</v>
       </c>
       <c r="I42" s="51" t="s">
@@ -6351,7 +6375,7 @@
       <c r="L42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M42" s="129" t="s">
+      <c r="M42" s="136" t="s">
         <v>205</v>
       </c>
       <c r="N42" s="51" t="s">
@@ -6363,7 +6387,7 @@
       <c r="Q42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="R42" s="129" t="s">
+      <c r="R42" s="136" t="s">
         <v>205</v>
       </c>
       <c r="S42" s="51" t="s">
@@ -6377,7 +6401,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="130"/>
+      <c r="C43" s="137"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6387,7 +6411,7 @@
       <c r="G43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="130"/>
+      <c r="H43" s="137"/>
       <c r="I43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6397,7 +6421,7 @@
       <c r="L43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="131"/>
+      <c r="M43" s="138"/>
       <c r="N43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6407,7 +6431,7 @@
       <c r="Q43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="130"/>
+      <c r="R43" s="137"/>
       <c r="S43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6419,7 +6443,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="130"/>
+      <c r="C44" s="137"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -6429,7 +6453,7 @@
       <c r="G44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="130"/>
+      <c r="H44" s="137"/>
       <c r="I44" s="51" t="s">
         <v>181</v>
       </c>
@@ -6449,7 +6473,7 @@
       <c r="Q44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="R44" s="130"/>
+      <c r="R44" s="137"/>
       <c r="S44" s="51" t="s">
         <v>181</v>
       </c>
@@ -6461,7 +6485,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="131"/>
+      <c r="C45" s="138"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -6471,7 +6495,7 @@
       <c r="G45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H45" s="131"/>
+      <c r="H45" s="138"/>
       <c r="I45" s="51" t="s">
         <v>181</v>
       </c>
@@ -6491,7 +6515,7 @@
       <c r="Q45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="R45" s="131"/>
+      <c r="R45" s="138"/>
       <c r="S45" s="51" t="s">
         <v>181</v>
       </c>
@@ -6587,7 +6611,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="129" t="s">
+      <c r="C48" s="136" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -6599,7 +6623,7 @@
       <c r="G48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="129" t="s">
+      <c r="H48" s="136" t="s">
         <v>343</v>
       </c>
       <c r="I48" s="51" t="s">
@@ -6611,7 +6635,7 @@
       <c r="L48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M48" s="129" t="s">
+      <c r="M48" s="136" t="s">
         <v>343</v>
       </c>
       <c r="N48" s="51" t="s">
@@ -6623,7 +6647,7 @@
       <c r="Q48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R48" s="129" t="s">
+      <c r="R48" s="136" t="s">
         <v>343</v>
       </c>
       <c r="S48" s="51" t="s">
@@ -6637,7 +6661,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="131"/>
+      <c r="C49" s="138"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -6647,7 +6671,7 @@
       <c r="G49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="131"/>
+      <c r="H49" s="138"/>
       <c r="I49" s="51" t="s">
         <v>185</v>
       </c>
@@ -6657,7 +6681,7 @@
       <c r="L49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="M49" s="131"/>
+      <c r="M49" s="138"/>
       <c r="N49" s="51" t="s">
         <v>185</v>
       </c>
@@ -6667,7 +6691,7 @@
       <c r="Q49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R49" s="131"/>
+      <c r="R49" s="138"/>
       <c r="S49" s="51" t="s">
         <v>185</v>
       </c>
@@ -7041,7 +7065,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="129" t="s">
+      <c r="C58" s="136" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -7053,7 +7077,7 @@
       <c r="G58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="129" t="s">
+      <c r="H58" s="136" t="s">
         <v>413</v>
       </c>
       <c r="I58" s="51" t="s">
@@ -7065,7 +7089,7 @@
       <c r="L58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="M58" s="129" t="s">
+      <c r="M58" s="136" t="s">
         <v>413</v>
       </c>
       <c r="N58" s="51" t="s">
@@ -7077,7 +7101,7 @@
       <c r="Q58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="R58" s="129" t="s">
+      <c r="R58" s="136" t="s">
         <v>413</v>
       </c>
       <c r="S58" s="51" t="s">
@@ -7091,7 +7115,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="131"/>
+      <c r="C59" s="138"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -7101,7 +7125,7 @@
       <c r="G59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H59" s="131"/>
+      <c r="H59" s="138"/>
       <c r="I59" s="51" t="s">
         <v>169</v>
       </c>
@@ -7111,7 +7135,7 @@
       <c r="L59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M59" s="131"/>
+      <c r="M59" s="138"/>
       <c r="N59" s="51" t="s">
         <v>169</v>
       </c>
@@ -7121,7 +7145,7 @@
       <c r="Q59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="R59" s="131"/>
+      <c r="R59" s="138"/>
       <c r="S59" s="51" t="s">
         <v>169</v>
       </c>
@@ -8446,7 +8470,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="132" t="s">
+      <c r="C92" s="139" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -8458,7 +8482,7 @@
       <c r="G92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H92" s="132" t="s">
+      <c r="H92" s="139" t="s">
         <v>427</v>
       </c>
       <c r="I92" s="52" t="s">
@@ -8470,7 +8494,7 @@
       <c r="L92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="M92" s="132" t="s">
+      <c r="M92" s="139" t="s">
         <v>427</v>
       </c>
       <c r="N92" s="52" t="s">
@@ -8482,7 +8506,7 @@
       <c r="Q92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R92" s="132" t="s">
+      <c r="R92" s="139" t="s">
         <v>427</v>
       </c>
       <c r="S92" s="52" t="s">
@@ -8496,7 +8520,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="133"/>
+      <c r="C93" s="140"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -8506,7 +8530,7 @@
       <c r="G93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H93" s="133"/>
+      <c r="H93" s="140"/>
       <c r="I93" s="52" t="s">
         <v>185</v>
       </c>
@@ -8516,7 +8540,7 @@
       <c r="L93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M93" s="133"/>
+      <c r="M93" s="140"/>
       <c r="N93" s="52" t="s">
         <v>185</v>
       </c>
@@ -8526,7 +8550,7 @@
       <c r="Q93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R93" s="133"/>
+      <c r="R93" s="140"/>
       <c r="S93" s="52" t="s">
         <v>185</v>
       </c>
@@ -10961,28 +10985,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C117:C118"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="H92:H93"/>
     <mergeCell ref="H117:H118"/>
@@ -10999,11 +11006,28 @@
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M15:M18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:S71 F72:G72 I72:L72 N72:Q72 S72 F73:S163">
@@ -11034,12 +11058,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
@@ -11082,7 +11106,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="130" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -11096,7 +11120,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="137"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -11108,7 +11132,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="137"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -11120,7 +11144,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="138"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -11142,7 +11166,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="130" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -11156,7 +11180,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -11192,7 +11216,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="130" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -11206,7 +11230,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -11218,7 +11242,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="137"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -11230,7 +11254,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -11298,7 +11322,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="130" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -11312,7 +11336,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="138"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -11362,7 +11386,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="130" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -11376,7 +11400,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="137"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -11388,7 +11412,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="137"/>
+      <c r="C30" s="131"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -11400,7 +11424,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="138"/>
+      <c r="C31" s="132"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -11422,7 +11446,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="130" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -11436,7 +11460,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="137"/>
+      <c r="C34" s="131"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -11448,7 +11472,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="138"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -11460,7 +11484,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="136" t="s">
+      <c r="C36" s="130" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -11474,7 +11498,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="137"/>
+      <c r="C37" s="131"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -11486,7 +11510,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="138"/>
+      <c r="C38" s="132"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -11524,7 +11548,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="129" t="s">
+      <c r="C42" s="136" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -11538,7 +11562,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="130"/>
+      <c r="C43" s="137"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -11550,7 +11574,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="130"/>
+      <c r="C44" s="137"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -11562,7 +11586,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="131"/>
+      <c r="C45" s="138"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -11598,7 +11622,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="129" t="s">
+      <c r="C48" s="136" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -11612,7 +11636,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="131"/>
+      <c r="C49" s="138"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -11736,7 +11760,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="129" t="s">
+      <c r="C58" s="136" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -11750,7 +11774,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="131"/>
+      <c r="C59" s="138"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -12184,7 +12208,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="132" t="s">
+      <c r="C92" s="139" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -12198,7 +12222,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="133"/>
+      <c r="C93" s="140"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -13020,12 +13044,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C23:C24"/>
@@ -13033,6 +13051,12 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13057,12 +13081,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -13111,7 +13135,7 @@
       <c r="B6" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="127" t="s">
@@ -13125,7 +13149,7 @@
       <c r="B7" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="142"/>
+      <c r="C7" s="143"/>
       <c r="D7" s="127" t="s">
         <v>169</v>
       </c>
@@ -13137,7 +13161,7 @@
       <c r="B8" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="142"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="127" t="s">
         <v>169</v>
       </c>
@@ -13149,7 +13173,7 @@
       <c r="B9" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="141"/>
+      <c r="C9" s="142"/>
       <c r="D9" s="127" t="s">
         <v>169</v>
       </c>
@@ -13171,7 +13195,7 @@
       <c r="B11" s="126" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="141" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="127" t="s">
@@ -13185,7 +13209,7 @@
       <c r="B12" s="126" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="127" t="s">
         <v>175</v>
       </c>
@@ -13221,7 +13245,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="130" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -13235,7 +13259,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -13247,7 +13271,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="137"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -13259,7 +13283,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -13365,7 +13389,7 @@
       <c r="B26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="136" t="s">
+      <c r="C26" s="130" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="50" t="s">
@@ -13379,7 +13403,7 @@
       <c r="B27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="137"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -13391,7 +13415,7 @@
       <c r="B28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="137"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -13403,7 +13427,7 @@
       <c r="B29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="138"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -13441,7 +13465,7 @@
       <c r="B33" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="129" t="s">
+      <c r="C33" s="136" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="51" t="s">
@@ -13455,7 +13479,7 @@
       <c r="B34" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="130"/>
+      <c r="C34" s="137"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -13467,7 +13491,7 @@
       <c r="B35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="130"/>
+      <c r="C35" s="137"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -13479,7 +13503,7 @@
       <c r="B36" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="131"/>
+      <c r="C36" s="138"/>
       <c r="D36" s="51" t="s">
         <v>181</v>
       </c>
@@ -13515,7 +13539,7 @@
       <c r="B39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="129" t="s">
+      <c r="C39" s="136" t="s">
         <v>343</v>
       </c>
       <c r="D39" s="51" t="s">
@@ -13529,7 +13553,7 @@
       <c r="B40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="131"/>
+      <c r="C40" s="138"/>
       <c r="D40" s="51" t="s">
         <v>185</v>
       </c>
@@ -13639,7 +13663,7 @@
       <c r="B48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="129" t="s">
+      <c r="C48" s="136" t="s">
         <v>413</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -13653,7 +13677,7 @@
       <c r="B49" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C49" s="131"/>
+      <c r="C49" s="138"/>
       <c r="D49" s="51" t="s">
         <v>169</v>
       </c>
@@ -14805,12 +14829,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -14859,7 +14883,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="130" t="s">
         <v>426</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -14873,7 +14897,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="137"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -14885,7 +14909,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="137"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -14897,7 +14921,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="138"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -14919,7 +14943,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="130" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -14933,7 +14957,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -14969,7 +14993,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="130" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -14983,7 +15007,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -14995,7 +15019,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="137"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -15007,7 +15031,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -15099,7 +15123,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="130" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -15113,7 +15137,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="137"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -15125,7 +15149,7 @@
       <c r="B27" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C27" s="137"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -15137,7 +15161,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="138"/>
+      <c r="C28" s="132"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -15175,7 +15199,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="136" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -15189,7 +15213,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="131"/>
+      <c r="C33" s="138"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -15249,7 +15273,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="129" t="s">
+      <c r="C38" s="136" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -15263,7 +15287,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="131"/>
+      <c r="C39" s="138"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -15359,7 +15383,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="129" t="s">
+      <c r="C46" s="136" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -15373,7 +15397,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="131"/>
+      <c r="C47" s="138"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -15707,7 +15731,7 @@
       <c r="B73" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="132" t="s">
+      <c r="C73" s="139" t="s">
         <v>427</v>
       </c>
       <c r="D73" s="52" t="s">
@@ -15721,7 +15745,7 @@
       <c r="B74" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="133"/>
+      <c r="C74" s="140"/>
       <c r="D74" s="52" t="s">
         <v>185</v>
       </c>
@@ -16522,16 +16546,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16556,12 +16580,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -16610,7 +16634,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="130" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -16624,7 +16648,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="137"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -16636,7 +16660,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="137"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -16648,7 +16672,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="138"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -16670,7 +16694,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="130" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -16684,7 +16708,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -16718,7 +16742,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="130" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -16732,7 +16756,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -16744,7 +16768,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="137"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -16756,7 +16780,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -16848,7 +16872,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="130" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -16862,7 +16886,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="137"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -16874,7 +16898,7 @@
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="137"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -16886,7 +16910,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="138"/>
+      <c r="C28" s="132"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -16924,7 +16948,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="136" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -16938,7 +16962,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="130"/>
+      <c r="C33" s="137"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -16950,7 +16974,7 @@
       <c r="B34" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="130"/>
+      <c r="C34" s="137"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -16962,7 +16986,7 @@
       <c r="B35" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="131"/>
+      <c r="C35" s="138"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -16998,7 +17022,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="129" t="s">
+      <c r="C38" s="136" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -17012,7 +17036,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="131"/>
+      <c r="C39" s="138"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -17108,7 +17132,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="129" t="s">
+      <c r="C46" s="136" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -17122,7 +17146,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="131"/>
+      <c r="C47" s="138"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -17442,7 +17466,7 @@
       <c r="B72" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="132" t="s">
+      <c r="C72" s="139" t="s">
         <v>427</v>
       </c>
       <c r="D72" s="52" t="s">
@@ -17456,7 +17480,7 @@
       <c r="B73" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="133"/>
+      <c r="C73" s="140"/>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
@@ -18059,16 +18083,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CompetencesCPGE2021_Simplifiees_XP.xlsx
+++ b/CompetencesCPGE2021_Simplifiees_XP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED97375-AEF0-41CC-9EA6-457B620285B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9792DF30-25B5-4594-A915-5A72BACFD668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="19200" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RéflexionsXP" sheetId="44" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
     <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
-    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3052,24 +3052,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3085,6 +3069,24 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3094,8 +3096,6 @@
     <xf numFmtId="0" fontId="27" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA8FD29-6739-43DF-AA05-FBA91CDC0FC0}">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94:H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3508,7 +3508,7 @@
       <c r="D4" t="s">
         <v>546</v>
       </c>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="130" t="s">
         <v>47</v>
       </c>
       <c r="H4" t="s">
@@ -3519,7 +3519,7 @@
       <c r="B5" s="128" t="s">
         <v>601</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="131" t="s">
         <v>560</v>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       <c r="B8" s="128" t="s">
         <v>474</v>
       </c>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="130" t="s">
         <v>64</v>
       </c>
       <c r="H8" t="s">
@@ -3593,7 +3593,7 @@
       <c r="B15" s="128" t="s">
         <v>599</v>
       </c>
-      <c r="G15" s="144" t="s">
+      <c r="G15" s="130" t="s">
         <v>64</v>
       </c>
       <c r="H15" t="s">
@@ -3625,7 +3625,7 @@
       <c r="E19" t="s">
         <v>535</v>
       </c>
-      <c r="G19" s="144" t="s">
+      <c r="G19" s="130" t="s">
         <v>43</v>
       </c>
       <c r="H19" t="s">
@@ -3656,7 +3656,7 @@
       <c r="D21" t="s">
         <v>555</v>
       </c>
-      <c r="G21" s="144" t="s">
+      <c r="G21" s="130" t="s">
         <v>64</v>
       </c>
       <c r="H21" t="s">
@@ -3704,7 +3704,7 @@
       <c r="H24" t="s">
         <v>220</v>
       </c>
-      <c r="I24" s="144" t="s">
+      <c r="I24" s="130" t="s">
         <v>45</v>
       </c>
       <c r="J24" t="s">
@@ -3762,7 +3762,7 @@
       <c r="E30" t="s">
         <v>581</v>
       </c>
-      <c r="G30" s="144" t="s">
+      <c r="G30" s="130" t="s">
         <v>46</v>
       </c>
       <c r="H30" t="s">
@@ -3820,7 +3820,7 @@
       <c r="D35" t="s">
         <v>557</v>
       </c>
-      <c r="G35" s="144" t="s">
+      <c r="G35" s="130" t="s">
         <v>37</v>
       </c>
       <c r="H35" t="s">
@@ -3831,7 +3831,7 @@
       <c r="B36" s="128" t="s">
         <v>519</v>
       </c>
-      <c r="G36" s="144" t="s">
+      <c r="G36" s="130" t="s">
         <v>40</v>
       </c>
       <c r="H36" t="s">
@@ -3873,7 +3873,7 @@
       <c r="D39" t="s">
         <v>566</v>
       </c>
-      <c r="G39" s="144" t="s">
+      <c r="G39" s="130" t="s">
         <v>39</v>
       </c>
       <c r="H39" t="s">
@@ -4058,7 +4058,7 @@
       <c r="E54" s="128" t="s">
         <v>595</v>
       </c>
-      <c r="G54" s="144" t="s">
+      <c r="G54" s="130" t="s">
         <v>61</v>
       </c>
       <c r="H54" t="s">
@@ -4257,7 +4257,7 @@
       <c r="E75" t="s">
         <v>562</v>
       </c>
-      <c r="G75" s="144" t="s">
+      <c r="G75" s="130" t="s">
         <v>50</v>
       </c>
       <c r="H75" t="s">
@@ -4304,7 +4304,7 @@
       <c r="E79" t="s">
         <v>588</v>
       </c>
-      <c r="G79" s="144" t="s">
+      <c r="G79" s="130" t="s">
         <v>49</v>
       </c>
       <c r="H79" t="s">
@@ -4352,7 +4352,7 @@
       <c r="T82" t="s">
         <v>174</v>
       </c>
-      <c r="U82" s="144" t="s">
+      <c r="U82" s="130" t="s">
         <v>8</v>
       </c>
       <c r="V82" t="s">
@@ -4486,7 +4486,7 @@
       <c r="R86" t="s">
         <v>173</v>
       </c>
-      <c r="U86" s="144" t="s">
+      <c r="U86" s="130" t="s">
         <v>12</v>
       </c>
       <c r="V86" t="s">
@@ -4494,7 +4494,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="U87" s="144" t="s">
+      <c r="U87" s="130" t="s">
         <v>13</v>
       </c>
       <c r="V87" t="s">
@@ -4830,30 +4830,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="142" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="F1" s="133" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="F1" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="K1" s="133" t="s">
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="K1" s="142" t="s">
         <v>421</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="P1" s="133" t="s">
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="P1" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" s="58"/>
@@ -4994,7 +4994,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="139" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -5006,7 +5006,7 @@
       <c r="G6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="130" t="s">
+      <c r="H6" s="139" t="s">
         <v>329</v>
       </c>
       <c r="I6" s="50" t="s">
@@ -5018,7 +5018,7 @@
       <c r="L6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="130" t="s">
+      <c r="M6" s="139" t="s">
         <v>426</v>
       </c>
       <c r="N6" s="50" t="s">
@@ -5030,7 +5030,7 @@
       <c r="Q6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="130" t="s">
+      <c r="R6" s="139" t="s">
         <v>329</v>
       </c>
       <c r="S6" s="50" t="s">
@@ -5044,7 +5044,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="131"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="G7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="131"/>
+      <c r="H7" s="140"/>
       <c r="I7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="L7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="131"/>
+      <c r="M7" s="140"/>
       <c r="N7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5074,7 +5074,7 @@
       <c r="Q7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="131"/>
+      <c r="R7" s="140"/>
       <c r="S7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="131"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="G8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="131"/>
+      <c r="H8" s="140"/>
       <c r="I8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5106,7 +5106,7 @@
       <c r="L8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="131"/>
+      <c r="M8" s="140"/>
       <c r="N8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="Q8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="131"/>
+      <c r="R8" s="140"/>
       <c r="S8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="132"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5138,7 +5138,7 @@
       <c r="G9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="132"/>
+      <c r="H9" s="141"/>
       <c r="I9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="L9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="132"/>
+      <c r="M9" s="141"/>
       <c r="N9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5158,7 +5158,7 @@
       <c r="Q9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="132"/>
+      <c r="R9" s="141"/>
       <c r="S9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="139" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -5216,7 +5216,7 @@
       <c r="G11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="130" t="s">
+      <c r="H11" s="139" t="s">
         <v>330</v>
       </c>
       <c r="I11" s="50" t="s">
@@ -5228,7 +5228,7 @@
       <c r="L11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="130" t="s">
+      <c r="M11" s="139" t="s">
         <v>330</v>
       </c>
       <c r="N11" s="50" t="s">
@@ -5240,7 +5240,7 @@
       <c r="Q11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R11" s="130" t="s">
+      <c r="R11" s="139" t="s">
         <v>330</v>
       </c>
       <c r="S11" s="50" t="s">
@@ -5254,7 +5254,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="132"/>
+      <c r="C12" s="141"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="G12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="132"/>
+      <c r="H12" s="141"/>
       <c r="I12" s="50" t="s">
         <v>175</v>
       </c>
@@ -5274,7 +5274,7 @@
       <c r="L12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M12" s="132"/>
+      <c r="M12" s="141"/>
       <c r="N12" s="50" t="s">
         <v>175</v>
       </c>
@@ -5284,7 +5284,7 @@
       <c r="Q12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="R12" s="132"/>
+      <c r="R12" s="141"/>
       <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -5378,7 +5378,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="139" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -5390,7 +5390,7 @@
       <c r="G15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="130" t="s">
+      <c r="H15" s="139" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="50" t="s">
@@ -5402,7 +5402,7 @@
       <c r="L15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="130" t="s">
+      <c r="M15" s="139" t="s">
         <v>331</v>
       </c>
       <c r="N15" s="50" t="s">
@@ -5414,7 +5414,7 @@
       <c r="Q15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R15" s="130" t="s">
+      <c r="R15" s="139" t="s">
         <v>331</v>
       </c>
       <c r="S15" s="50" t="s">
@@ -5428,7 +5428,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="131"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="G16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="131"/>
+      <c r="H16" s="140"/>
       <c r="I16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5448,7 +5448,7 @@
       <c r="L16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="131"/>
+      <c r="M16" s="140"/>
       <c r="N16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5458,7 +5458,7 @@
       <c r="Q16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="131"/>
+      <c r="R16" s="140"/>
       <c r="S16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5470,7 +5470,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5480,7 +5480,7 @@
       <c r="G17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="131"/>
+      <c r="H17" s="140"/>
       <c r="I17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5490,7 +5490,7 @@
       <c r="L17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="131"/>
+      <c r="M17" s="140"/>
       <c r="N17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="Q17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="131"/>
+      <c r="R17" s="140"/>
       <c r="S17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="132"/>
+      <c r="C18" s="141"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="G18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="132"/>
+      <c r="H18" s="141"/>
       <c r="I18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="L18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="132"/>
+      <c r="M18" s="141"/>
       <c r="N18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="Q18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="R18" s="132"/>
+      <c r="R18" s="141"/>
       <c r="S18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5738,7 +5738,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="139" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -5758,7 +5758,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="132"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="139" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -5931,7 +5931,7 @@
       <c r="G28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="130" t="s">
+      <c r="H28" s="139" t="s">
         <v>339</v>
       </c>
       <c r="I28" s="50" t="s">
@@ -5943,7 +5943,7 @@
       <c r="L28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="130" t="s">
+      <c r="M28" s="139" t="s">
         <v>339</v>
       </c>
       <c r="N28" s="50" t="s">
@@ -5955,7 +5955,7 @@
       <c r="Q28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R28" s="130" t="s">
+      <c r="R28" s="139" t="s">
         <v>339</v>
       </c>
       <c r="S28" s="50" t="s">
@@ -5969,7 +5969,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="131"/>
+      <c r="C29" s="140"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="G29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="131"/>
+      <c r="H29" s="140"/>
       <c r="I29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="L29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="131"/>
+      <c r="M29" s="140"/>
       <c r="N29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="Q29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="131"/>
+      <c r="R29" s="140"/>
       <c r="S29" s="50" t="s">
         <v>181</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="131"/>
+      <c r="C30" s="140"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="G30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="131"/>
+      <c r="H30" s="140"/>
       <c r="I30" s="50" t="s">
         <v>181</v>
       </c>
@@ -6031,7 +6031,7 @@
       <c r="L30" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M30" s="131"/>
+      <c r="M30" s="140"/>
       <c r="N30" s="50" t="s">
         <v>181</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="Q30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="R30" s="131"/>
+      <c r="R30" s="140"/>
       <c r="S30" s="50" t="s">
         <v>181</v>
       </c>
@@ -6053,7 +6053,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="132"/>
+      <c r="C31" s="141"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6063,7 +6063,7 @@
       <c r="G31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="132"/>
+      <c r="H31" s="141"/>
       <c r="I31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="L31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M31" s="132"/>
+      <c r="M31" s="141"/>
       <c r="N31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="Q31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="R31" s="132"/>
+      <c r="R31" s="141"/>
       <c r="S31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6111,7 +6111,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="130" t="s">
+      <c r="C33" s="139" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -6130,7 +6130,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="131"/>
+      <c r="C34" s="140"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -6156,7 +6156,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="132"/>
+      <c r="C35" s="141"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -6182,7 +6182,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="130" t="s">
+      <c r="C36" s="139" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -6210,7 +6210,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="131"/>
+      <c r="C37" s="140"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="132"/>
+      <c r="C38" s="141"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="136" t="s">
+      <c r="C42" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -6363,7 +6363,7 @@
       <c r="G42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="136" t="s">
+      <c r="H42" s="132" t="s">
         <v>205</v>
       </c>
       <c r="I42" s="51" t="s">
@@ -6375,7 +6375,7 @@
       <c r="L42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M42" s="136" t="s">
+      <c r="M42" s="132" t="s">
         <v>205</v>
       </c>
       <c r="N42" s="51" t="s">
@@ -6387,7 +6387,7 @@
       <c r="Q42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="R42" s="136" t="s">
+      <c r="R42" s="132" t="s">
         <v>205</v>
       </c>
       <c r="S42" s="51" t="s">
@@ -6401,7 +6401,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="137"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6411,7 +6411,7 @@
       <c r="G43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="137"/>
+      <c r="H43" s="133"/>
       <c r="I43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6421,7 +6421,7 @@
       <c r="L43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="138"/>
+      <c r="M43" s="134"/>
       <c r="N43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6431,7 +6431,7 @@
       <c r="Q43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="137"/>
+      <c r="R43" s="133"/>
       <c r="S43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6443,7 +6443,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="137"/>
+      <c r="C44" s="133"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -6453,7 +6453,7 @@
       <c r="G44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="137"/>
+      <c r="H44" s="133"/>
       <c r="I44" s="51" t="s">
         <v>181</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="Q44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="R44" s="137"/>
+      <c r="R44" s="133"/>
       <c r="S44" s="51" t="s">
         <v>181</v>
       </c>
@@ -6485,7 +6485,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="138"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -6495,7 +6495,7 @@
       <c r="G45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H45" s="138"/>
+      <c r="H45" s="134"/>
       <c r="I45" s="51" t="s">
         <v>181</v>
       </c>
@@ -6515,7 +6515,7 @@
       <c r="Q45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="R45" s="138"/>
+      <c r="R45" s="134"/>
       <c r="S45" s="51" t="s">
         <v>181</v>
       </c>
@@ -6611,7 +6611,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="136" t="s">
+      <c r="C48" s="132" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -6623,7 +6623,7 @@
       <c r="G48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="136" t="s">
+      <c r="H48" s="132" t="s">
         <v>343</v>
       </c>
       <c r="I48" s="51" t="s">
@@ -6635,7 +6635,7 @@
       <c r="L48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M48" s="136" t="s">
+      <c r="M48" s="132" t="s">
         <v>343</v>
       </c>
       <c r="N48" s="51" t="s">
@@ -6647,7 +6647,7 @@
       <c r="Q48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R48" s="136" t="s">
+      <c r="R48" s="132" t="s">
         <v>343</v>
       </c>
       <c r="S48" s="51" t="s">
@@ -6661,7 +6661,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="138"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="G49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="138"/>
+      <c r="H49" s="134"/>
       <c r="I49" s="51" t="s">
         <v>185</v>
       </c>
@@ -6681,7 +6681,7 @@
       <c r="L49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="M49" s="138"/>
+      <c r="M49" s="134"/>
       <c r="N49" s="51" t="s">
         <v>185</v>
       </c>
@@ -6691,7 +6691,7 @@
       <c r="Q49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R49" s="138"/>
+      <c r="R49" s="134"/>
       <c r="S49" s="51" t="s">
         <v>185</v>
       </c>
@@ -7065,7 +7065,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="136" t="s">
+      <c r="C58" s="132" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -7077,7 +7077,7 @@
       <c r="G58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="136" t="s">
+      <c r="H58" s="132" t="s">
         <v>413</v>
       </c>
       <c r="I58" s="51" t="s">
@@ -7089,7 +7089,7 @@
       <c r="L58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="M58" s="136" t="s">
+      <c r="M58" s="132" t="s">
         <v>413</v>
       </c>
       <c r="N58" s="51" t="s">
@@ -7101,7 +7101,7 @@
       <c r="Q58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="R58" s="136" t="s">
+      <c r="R58" s="132" t="s">
         <v>413</v>
       </c>
       <c r="S58" s="51" t="s">
@@ -7115,7 +7115,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="138"/>
+      <c r="C59" s="134"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -7125,7 +7125,7 @@
       <c r="G59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H59" s="138"/>
+      <c r="H59" s="134"/>
       <c r="I59" s="51" t="s">
         <v>169</v>
       </c>
@@ -7135,7 +7135,7 @@
       <c r="L59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M59" s="138"/>
+      <c r="M59" s="134"/>
       <c r="N59" s="51" t="s">
         <v>169</v>
       </c>
@@ -7145,7 +7145,7 @@
       <c r="Q59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="R59" s="138"/>
+      <c r="R59" s="134"/>
       <c r="S59" s="51" t="s">
         <v>169</v>
       </c>
@@ -8470,7 +8470,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="139" t="s">
+      <c r="C92" s="135" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -8482,7 +8482,7 @@
       <c r="G92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H92" s="139" t="s">
+      <c r="H92" s="135" t="s">
         <v>427</v>
       </c>
       <c r="I92" s="52" t="s">
@@ -8494,7 +8494,7 @@
       <c r="L92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="M92" s="139" t="s">
+      <c r="M92" s="135" t="s">
         <v>427</v>
       </c>
       <c r="N92" s="52" t="s">
@@ -8506,7 +8506,7 @@
       <c r="Q92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R92" s="139" t="s">
+      <c r="R92" s="135" t="s">
         <v>427</v>
       </c>
       <c r="S92" s="52" t="s">
@@ -8520,7 +8520,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="140"/>
+      <c r="C93" s="136"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -8530,7 +8530,7 @@
       <c r="G93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H93" s="140"/>
+      <c r="H93" s="136"/>
       <c r="I93" s="52" t="s">
         <v>185</v>
       </c>
@@ -8540,7 +8540,7 @@
       <c r="L93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M93" s="140"/>
+      <c r="M93" s="136"/>
       <c r="N93" s="52" t="s">
         <v>185</v>
       </c>
@@ -8550,7 +8550,7 @@
       <c r="Q93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R93" s="140"/>
+      <c r="R93" s="136"/>
       <c r="S93" s="52" t="s">
         <v>185</v>
       </c>
@@ -9445,7 +9445,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="134" t="s">
+      <c r="C117" s="137" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -9457,7 +9457,7 @@
       <c r="G117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="H117" s="134" t="s">
+      <c r="H117" s="137" t="s">
         <v>273</v>
       </c>
       <c r="I117" s="53" t="s">
@@ -9469,7 +9469,7 @@
       <c r="L117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="M117" s="134" t="s">
+      <c r="M117" s="137" t="s">
         <v>273</v>
       </c>
       <c r="N117" s="53" t="s">
@@ -9481,7 +9481,7 @@
       <c r="Q117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="R117" s="134" t="s">
+      <c r="R117" s="137" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="53" t="s">
@@ -9495,7 +9495,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="135"/>
+      <c r="C118" s="138"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -9505,7 +9505,7 @@
       <c r="G118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H118" s="135"/>
+      <c r="H118" s="138"/>
       <c r="I118" s="53" t="s">
         <v>175</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="L118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="M118" s="135"/>
+      <c r="M118" s="138"/>
       <c r="N118" s="53" t="s">
         <v>175</v>
       </c>
@@ -9525,7 +9525,7 @@
       <c r="Q118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="R118" s="135"/>
+      <c r="R118" s="138"/>
       <c r="S118" s="53" t="s">
         <v>434</v>
       </c>
@@ -10985,11 +10985,28 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M92:M93"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="H92:H93"/>
     <mergeCell ref="H117:H118"/>
@@ -11006,28 +11023,11 @@
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C117:C118"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:S71 F72:G72 I72:L72 N72:Q72 S72 F73:S163">
@@ -11058,12 +11058,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="142" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
@@ -11106,7 +11106,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="139" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -11120,7 +11120,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="131"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -11132,7 +11132,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="131"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -11144,7 +11144,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="132"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -11166,7 +11166,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="139" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -11180,7 +11180,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="132"/>
+      <c r="C12" s="141"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -11216,7 +11216,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="139" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -11230,7 +11230,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="131"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -11242,7 +11242,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -11254,7 +11254,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="132"/>
+      <c r="C18" s="141"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -11322,7 +11322,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="139" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -11336,7 +11336,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="132"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -11386,7 +11386,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="139" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -11400,7 +11400,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="131"/>
+      <c r="C29" s="140"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -11412,7 +11412,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="131"/>
+      <c r="C30" s="140"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -11424,7 +11424,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="132"/>
+      <c r="C31" s="141"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="130" t="s">
+      <c r="C33" s="139" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -11460,7 +11460,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="131"/>
+      <c r="C34" s="140"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="132"/>
+      <c r="C35" s="141"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -11484,7 +11484,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="130" t="s">
+      <c r="C36" s="139" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -11498,7 +11498,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="131"/>
+      <c r="C37" s="140"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -11510,7 +11510,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="132"/>
+      <c r="C38" s="141"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -11548,7 +11548,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="136" t="s">
+      <c r="C42" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -11562,7 +11562,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="137"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -11574,7 +11574,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="137"/>
+      <c r="C44" s="133"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -11586,7 +11586,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="138"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -11622,7 +11622,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="136" t="s">
+      <c r="C48" s="132" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -11636,7 +11636,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="138"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -11760,7 +11760,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="136" t="s">
+      <c r="C58" s="132" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -11774,7 +11774,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="138"/>
+      <c r="C59" s="134"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -12208,7 +12208,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="139" t="s">
+      <c r="C92" s="135" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -12222,7 +12222,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="140"/>
+      <c r="C93" s="136"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -12500,7 +12500,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="134" t="s">
+      <c r="C117" s="137" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -12514,7 +12514,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="135"/>
+      <c r="C118" s="138"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -13044,6 +13044,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C23:C24"/>
@@ -13051,12 +13057,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13081,12 +13081,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -13135,7 +13135,7 @@
       <c r="B6" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="143" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="127" t="s">
@@ -13149,7 +13149,7 @@
       <c r="B7" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="143"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="127" t="s">
         <v>169</v>
       </c>
@@ -13161,7 +13161,7 @@
       <c r="B8" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="143"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="127" t="s">
         <v>169</v>
       </c>
@@ -13173,7 +13173,7 @@
       <c r="B9" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="142"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="127" t="s">
         <v>169</v>
       </c>
@@ -13195,7 +13195,7 @@
       <c r="B11" s="126" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="143" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="127" t="s">
@@ -13209,7 +13209,7 @@
       <c r="B12" s="126" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="127" t="s">
         <v>175</v>
       </c>
@@ -13245,7 +13245,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="139" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -13259,7 +13259,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="131"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -13271,7 +13271,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -13283,7 +13283,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="132"/>
+      <c r="C18" s="141"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -13389,7 +13389,7 @@
       <c r="B26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="139" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="50" t="s">
@@ -13403,7 +13403,7 @@
       <c r="B27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="131"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -13415,7 +13415,7 @@
       <c r="B28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="131"/>
+      <c r="C28" s="140"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -13427,7 +13427,7 @@
       <c r="B29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="132"/>
+      <c r="C29" s="141"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -13465,7 +13465,7 @@
       <c r="B33" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="51" t="s">
@@ -13479,7 +13479,7 @@
       <c r="B34" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="137"/>
+      <c r="C34" s="133"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -13491,7 +13491,7 @@
       <c r="B35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="137"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -13503,7 +13503,7 @@
       <c r="B36" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="138"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="51" t="s">
         <v>181</v>
       </c>
@@ -13539,7 +13539,7 @@
       <c r="B39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="136" t="s">
+      <c r="C39" s="132" t="s">
         <v>343</v>
       </c>
       <c r="D39" s="51" t="s">
@@ -13553,7 +13553,7 @@
       <c r="B40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="138"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="51" t="s">
         <v>185</v>
       </c>
@@ -13663,7 +13663,7 @@
       <c r="B48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="136" t="s">
+      <c r="C48" s="132" t="s">
         <v>413</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -13677,7 +13677,7 @@
       <c r="B49" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C49" s="138"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="51" t="s">
         <v>169</v>
       </c>
@@ -14372,7 +14372,7 @@
       <c r="B104" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C104" s="134" t="s">
+      <c r="C104" s="137" t="s">
         <v>273</v>
       </c>
       <c r="D104" s="53" t="s">
@@ -14386,7 +14386,7 @@
       <c r="B105" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C105" s="135"/>
+      <c r="C105" s="138"/>
       <c r="D105" s="53" t="s">
         <v>175</v>
       </c>
@@ -14829,12 +14829,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="142" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -14883,7 +14883,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="139" t="s">
         <v>426</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -14897,7 +14897,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="131"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -14909,7 +14909,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="131"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -14921,7 +14921,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="132"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -14943,7 +14943,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="139" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -14957,7 +14957,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="132"/>
+      <c r="C12" s="141"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -14993,7 +14993,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="139" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -15007,7 +15007,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="131"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -15019,7 +15019,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -15031,7 +15031,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="132"/>
+      <c r="C18" s="141"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -15123,7 +15123,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="139" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -15137,7 +15137,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="131"/>
+      <c r="C26" s="140"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -15149,7 +15149,7 @@
       <c r="B27" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C27" s="131"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -15161,7 +15161,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="132"/>
+      <c r="C28" s="141"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -15199,7 +15199,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -15213,7 +15213,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="138"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -15273,7 +15273,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="136" t="s">
+      <c r="C38" s="132" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -15287,7 +15287,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="138"/>
+      <c r="C39" s="134"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -15383,7 +15383,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="136" t="s">
+      <c r="C46" s="132" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -15397,7 +15397,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="138"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -15731,7 +15731,7 @@
       <c r="B73" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="139" t="s">
+      <c r="C73" s="135" t="s">
         <v>427</v>
       </c>
       <c r="D73" s="52" t="s">
@@ -15745,7 +15745,7 @@
       <c r="B74" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="140"/>
+      <c r="C74" s="136"/>
       <c r="D74" s="52" t="s">
         <v>185</v>
       </c>
@@ -16000,7 +16000,7 @@
       <c r="B96" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="134" t="s">
+      <c r="C96" s="137" t="s">
         <v>273</v>
       </c>
       <c r="D96" s="53" t="s">
@@ -16014,7 +16014,7 @@
       <c r="B97" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="135"/>
+      <c r="C97" s="138"/>
       <c r="D97" s="53" t="s">
         <v>175</v>
       </c>
@@ -16546,16 +16546,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16580,12 +16580,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -16634,7 +16634,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="139" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -16648,7 +16648,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="131"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -16660,7 +16660,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="131"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -16672,7 +16672,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="132"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -16694,7 +16694,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="139" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -16708,7 +16708,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="132"/>
+      <c r="C12" s="141"/>
       <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -16742,7 +16742,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="139" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -16756,7 +16756,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="131"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -16768,7 +16768,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -16780,7 +16780,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="132"/>
+      <c r="C18" s="141"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -16872,7 +16872,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="139" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -16886,7 +16886,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="131"/>
+      <c r="C26" s="140"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -16898,7 +16898,7 @@
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="131"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -16910,7 +16910,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="132"/>
+      <c r="C28" s="141"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -16948,7 +16948,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -16962,7 +16962,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="137"/>
+      <c r="C33" s="133"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -16974,7 +16974,7 @@
       <c r="B34" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="137"/>
+      <c r="C34" s="133"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -16986,7 +16986,7 @@
       <c r="B35" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="138"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -17022,7 +17022,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="136" t="s">
+      <c r="C38" s="132" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -17036,7 +17036,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="138"/>
+      <c r="C39" s="134"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -17132,7 +17132,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="136" t="s">
+      <c r="C46" s="132" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -17146,7 +17146,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="138"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -17466,7 +17466,7 @@
       <c r="B72" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="139" t="s">
+      <c r="C72" s="135" t="s">
         <v>427</v>
       </c>
       <c r="D72" s="52" t="s">
@@ -17480,7 +17480,7 @@
       <c r="B73" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="140"/>
+      <c r="C73" s="136"/>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
@@ -17711,7 +17711,7 @@
       <c r="B93" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="134" t="s">
+      <c r="C93" s="137" t="s">
         <v>273</v>
       </c>
       <c r="D93" s="53" t="s">
@@ -17725,7 +17725,7 @@
       <c r="B94" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="135"/>
+      <c r="C94" s="138"/>
       <c r="D94" s="53" t="s">
         <v>434</v>
       </c>
@@ -18083,16 +18083,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CompetencesCPGE2021_Simplifiees_XP.xlsx
+++ b/CompetencesCPGE2021_Simplifiees_XP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9792DF30-25B5-4594-A915-5A72BACFD668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF9CC5-CFC9-4746-B8FD-9602BF742CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="19200" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RéflexionsXP" sheetId="44" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
+    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
     <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3054,6 +3054,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3068,24 +3086,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA8FD29-6739-43DF-AA05-FBA91CDC0FC0}">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94:H129"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4830,30 +4830,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="F1" s="142" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="F1" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="K1" s="142" t="s">
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="K1" s="135" t="s">
         <v>421</v>
       </c>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="P1" s="142" t="s">
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="P1" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" s="58"/>
@@ -4994,7 +4994,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="132" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -5006,7 +5006,7 @@
       <c r="G6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="132" t="s">
         <v>329</v>
       </c>
       <c r="I6" s="50" t="s">
@@ -5018,7 +5018,7 @@
       <c r="L6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="139" t="s">
+      <c r="M6" s="132" t="s">
         <v>426</v>
       </c>
       <c r="N6" s="50" t="s">
@@ -5030,7 +5030,7 @@
       <c r="Q6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="139" t="s">
+      <c r="R6" s="132" t="s">
         <v>329</v>
       </c>
       <c r="S6" s="50" t="s">
@@ -5044,7 +5044,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="140"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="G7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="140"/>
+      <c r="H7" s="133"/>
       <c r="I7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="L7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="140"/>
+      <c r="M7" s="133"/>
       <c r="N7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5074,7 +5074,7 @@
       <c r="Q7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="140"/>
+      <c r="R7" s="133"/>
       <c r="S7" s="50" t="s">
         <v>169</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="G8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="140"/>
+      <c r="H8" s="133"/>
       <c r="I8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5106,7 +5106,7 @@
       <c r="L8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="140"/>
+      <c r="M8" s="133"/>
       <c r="N8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="Q8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="140"/>
+      <c r="R8" s="133"/>
       <c r="S8" s="50" t="s">
         <v>169</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="141"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5138,7 +5138,7 @@
       <c r="G9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="141"/>
+      <c r="H9" s="134"/>
       <c r="I9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="L9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="141"/>
+      <c r="M9" s="134"/>
       <c r="N9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5158,7 +5158,7 @@
       <c r="Q9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="141"/>
+      <c r="R9" s="134"/>
       <c r="S9" s="50" t="s">
         <v>169</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -5216,7 +5216,7 @@
       <c r="G11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="139" t="s">
+      <c r="H11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="I11" s="50" t="s">
@@ -5228,7 +5228,7 @@
       <c r="L11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="139" t="s">
+      <c r="M11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="N11" s="50" t="s">
@@ -5240,7 +5240,7 @@
       <c r="Q11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R11" s="139" t="s">
+      <c r="R11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="S11" s="50" t="s">
@@ -5254,7 +5254,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="G12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="141"/>
+      <c r="H12" s="134"/>
       <c r="I12" s="50" t="s">
         <v>175</v>
       </c>
@@ -5274,7 +5274,7 @@
       <c r="L12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M12" s="141"/>
+      <c r="M12" s="134"/>
       <c r="N12" s="50" t="s">
         <v>175</v>
       </c>
@@ -5284,7 +5284,7 @@
       <c r="Q12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="R12" s="141"/>
+      <c r="R12" s="134"/>
       <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -5378,7 +5378,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -5390,7 +5390,7 @@
       <c r="G15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="139" t="s">
+      <c r="H15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="50" t="s">
@@ -5402,7 +5402,7 @@
       <c r="L15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="139" t="s">
+      <c r="M15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="N15" s="50" t="s">
@@ -5414,7 +5414,7 @@
       <c r="Q15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R15" s="139" t="s">
+      <c r="R15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="S15" s="50" t="s">
@@ -5428,7 +5428,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="G16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="140"/>
+      <c r="H16" s="133"/>
       <c r="I16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5448,7 +5448,7 @@
       <c r="L16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="140"/>
+      <c r="M16" s="133"/>
       <c r="N16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5458,7 +5458,7 @@
       <c r="Q16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="140"/>
+      <c r="R16" s="133"/>
       <c r="S16" s="50" t="s">
         <v>181</v>
       </c>
@@ -5470,7 +5470,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5480,7 +5480,7 @@
       <c r="G17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="140"/>
+      <c r="H17" s="133"/>
       <c r="I17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5490,7 +5490,7 @@
       <c r="L17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="140"/>
+      <c r="M17" s="133"/>
       <c r="N17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="Q17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="140"/>
+      <c r="R17" s="133"/>
       <c r="S17" s="50" t="s">
         <v>169</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="141"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="G18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="141"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="L18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="141"/>
+      <c r="M18" s="134"/>
       <c r="N18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="Q18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="R18" s="141"/>
+      <c r="R18" s="134"/>
       <c r="S18" s="50" t="s">
         <v>169</v>
       </c>
@@ -5738,7 +5738,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="132" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -5758,7 +5758,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="141"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="132" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -5931,7 +5931,7 @@
       <c r="G28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="139" t="s">
+      <c r="H28" s="132" t="s">
         <v>339</v>
       </c>
       <c r="I28" s="50" t="s">
@@ -5943,7 +5943,7 @@
       <c r="L28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="139" t="s">
+      <c r="M28" s="132" t="s">
         <v>339</v>
       </c>
       <c r="N28" s="50" t="s">
@@ -5955,7 +5955,7 @@
       <c r="Q28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R28" s="139" t="s">
+      <c r="R28" s="132" t="s">
         <v>339</v>
       </c>
       <c r="S28" s="50" t="s">
@@ -5969,7 +5969,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="140"/>
+      <c r="C29" s="133"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="G29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="140"/>
+      <c r="H29" s="133"/>
       <c r="I29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="L29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="140"/>
+      <c r="M29" s="133"/>
       <c r="N29" s="50" t="s">
         <v>181</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="Q29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="140"/>
+      <c r="R29" s="133"/>
       <c r="S29" s="50" t="s">
         <v>181</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="140"/>
+      <c r="C30" s="133"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="G30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="140"/>
+      <c r="H30" s="133"/>
       <c r="I30" s="50" t="s">
         <v>181</v>
       </c>
@@ -6031,7 +6031,7 @@
       <c r="L30" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M30" s="140"/>
+      <c r="M30" s="133"/>
       <c r="N30" s="50" t="s">
         <v>181</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="Q30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="R30" s="140"/>
+      <c r="R30" s="133"/>
       <c r="S30" s="50" t="s">
         <v>181</v>
       </c>
@@ -6053,7 +6053,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="141"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6063,7 +6063,7 @@
       <c r="G31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="141"/>
+      <c r="H31" s="134"/>
       <c r="I31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="L31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M31" s="141"/>
+      <c r="M31" s="134"/>
       <c r="N31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="Q31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="R31" s="141"/>
+      <c r="R31" s="134"/>
       <c r="S31" s="50" t="s">
         <v>181</v>
       </c>
@@ -6111,7 +6111,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="139" t="s">
+      <c r="C33" s="132" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -6130,7 +6130,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="140"/>
+      <c r="C34" s="133"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -6156,7 +6156,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="141"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -6182,7 +6182,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="139" t="s">
+      <c r="C36" s="132" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -6210,7 +6210,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="140"/>
+      <c r="C37" s="133"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="141"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="132" t="s">
+      <c r="C42" s="138" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -6363,7 +6363,7 @@
       <c r="G42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="132" t="s">
+      <c r="H42" s="138" t="s">
         <v>205</v>
       </c>
       <c r="I42" s="51" t="s">
@@ -6375,7 +6375,7 @@
       <c r="L42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M42" s="132" t="s">
+      <c r="M42" s="138" t="s">
         <v>205</v>
       </c>
       <c r="N42" s="51" t="s">
@@ -6387,7 +6387,7 @@
       <c r="Q42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="R42" s="132" t="s">
+      <c r="R42" s="138" t="s">
         <v>205</v>
       </c>
       <c r="S42" s="51" t="s">
@@ -6401,7 +6401,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="133"/>
+      <c r="C43" s="139"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6411,7 +6411,7 @@
       <c r="G43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="133"/>
+      <c r="H43" s="139"/>
       <c r="I43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6421,7 +6421,7 @@
       <c r="L43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="134"/>
+      <c r="M43" s="140"/>
       <c r="N43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6431,7 +6431,7 @@
       <c r="Q43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="133"/>
+      <c r="R43" s="139"/>
       <c r="S43" s="51" t="s">
         <v>181</v>
       </c>
@@ -6443,7 +6443,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="133"/>
+      <c r="C44" s="139"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -6453,7 +6453,7 @@
       <c r="G44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="133"/>
+      <c r="H44" s="139"/>
       <c r="I44" s="51" t="s">
         <v>181</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="Q44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="R44" s="133"/>
+      <c r="R44" s="139"/>
       <c r="S44" s="51" t="s">
         <v>181</v>
       </c>
@@ -6485,7 +6485,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="134"/>
+      <c r="C45" s="140"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -6495,7 +6495,7 @@
       <c r="G45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H45" s="134"/>
+      <c r="H45" s="140"/>
       <c r="I45" s="51" t="s">
         <v>181</v>
       </c>
@@ -6515,7 +6515,7 @@
       <c r="Q45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="R45" s="134"/>
+      <c r="R45" s="140"/>
       <c r="S45" s="51" t="s">
         <v>181</v>
       </c>
@@ -6611,7 +6611,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="132" t="s">
+      <c r="C48" s="138" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -6623,7 +6623,7 @@
       <c r="G48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="132" t="s">
+      <c r="H48" s="138" t="s">
         <v>343</v>
       </c>
       <c r="I48" s="51" t="s">
@@ -6635,7 +6635,7 @@
       <c r="L48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M48" s="132" t="s">
+      <c r="M48" s="138" t="s">
         <v>343</v>
       </c>
       <c r="N48" s="51" t="s">
@@ -6647,7 +6647,7 @@
       <c r="Q48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R48" s="132" t="s">
+      <c r="R48" s="138" t="s">
         <v>343</v>
       </c>
       <c r="S48" s="51" t="s">
@@ -6661,7 +6661,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="134"/>
+      <c r="C49" s="140"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="G49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="134"/>
+      <c r="H49" s="140"/>
       <c r="I49" s="51" t="s">
         <v>185</v>
       </c>
@@ -6681,7 +6681,7 @@
       <c r="L49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="M49" s="134"/>
+      <c r="M49" s="140"/>
       <c r="N49" s="51" t="s">
         <v>185</v>
       </c>
@@ -6691,7 +6691,7 @@
       <c r="Q49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R49" s="134"/>
+      <c r="R49" s="140"/>
       <c r="S49" s="51" t="s">
         <v>185</v>
       </c>
@@ -7065,7 +7065,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="132" t="s">
+      <c r="C58" s="138" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -7077,7 +7077,7 @@
       <c r="G58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="132" t="s">
+      <c r="H58" s="138" t="s">
         <v>413</v>
       </c>
       <c r="I58" s="51" t="s">
@@ -7089,7 +7089,7 @@
       <c r="L58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="M58" s="132" t="s">
+      <c r="M58" s="138" t="s">
         <v>413</v>
       </c>
       <c r="N58" s="51" t="s">
@@ -7101,7 +7101,7 @@
       <c r="Q58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="R58" s="132" t="s">
+      <c r="R58" s="138" t="s">
         <v>413</v>
       </c>
       <c r="S58" s="51" t="s">
@@ -7115,7 +7115,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="134"/>
+      <c r="C59" s="140"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -7125,7 +7125,7 @@
       <c r="G59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H59" s="134"/>
+      <c r="H59" s="140"/>
       <c r="I59" s="51" t="s">
         <v>169</v>
       </c>
@@ -7135,7 +7135,7 @@
       <c r="L59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M59" s="134"/>
+      <c r="M59" s="140"/>
       <c r="N59" s="51" t="s">
         <v>169</v>
       </c>
@@ -7145,7 +7145,7 @@
       <c r="Q59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="R59" s="134"/>
+      <c r="R59" s="140"/>
       <c r="S59" s="51" t="s">
         <v>169</v>
       </c>
@@ -8470,7 +8470,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="135" t="s">
+      <c r="C92" s="141" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -8482,7 +8482,7 @@
       <c r="G92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H92" s="135" t="s">
+      <c r="H92" s="141" t="s">
         <v>427</v>
       </c>
       <c r="I92" s="52" t="s">
@@ -8494,7 +8494,7 @@
       <c r="L92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="M92" s="135" t="s">
+      <c r="M92" s="141" t="s">
         <v>427</v>
       </c>
       <c r="N92" s="52" t="s">
@@ -8506,7 +8506,7 @@
       <c r="Q92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R92" s="135" t="s">
+      <c r="R92" s="141" t="s">
         <v>427</v>
       </c>
       <c r="S92" s="52" t="s">
@@ -8520,7 +8520,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="136"/>
+      <c r="C93" s="142"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -8530,7 +8530,7 @@
       <c r="G93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H93" s="136"/>
+      <c r="H93" s="142"/>
       <c r="I93" s="52" t="s">
         <v>185</v>
       </c>
@@ -8540,7 +8540,7 @@
       <c r="L93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M93" s="136"/>
+      <c r="M93" s="142"/>
       <c r="N93" s="52" t="s">
         <v>185</v>
       </c>
@@ -8550,7 +8550,7 @@
       <c r="Q93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R93" s="136"/>
+      <c r="R93" s="142"/>
       <c r="S93" s="52" t="s">
         <v>185</v>
       </c>
@@ -9445,7 +9445,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="137" t="s">
+      <c r="C117" s="136" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -9457,7 +9457,7 @@
       <c r="G117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="H117" s="137" t="s">
+      <c r="H117" s="136" t="s">
         <v>273</v>
       </c>
       <c r="I117" s="53" t="s">
@@ -9469,7 +9469,7 @@
       <c r="L117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="M117" s="137" t="s">
+      <c r="M117" s="136" t="s">
         <v>273</v>
       </c>
       <c r="N117" s="53" t="s">
@@ -9481,7 +9481,7 @@
       <c r="Q117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="R117" s="137" t="s">
+      <c r="R117" s="136" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="53" t="s">
@@ -9495,7 +9495,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="138"/>
+      <c r="C118" s="137"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -9505,7 +9505,7 @@
       <c r="G118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H118" s="138"/>
+      <c r="H118" s="137"/>
       <c r="I118" s="53" t="s">
         <v>175</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="L118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="M118" s="138"/>
+      <c r="M118" s="137"/>
       <c r="N118" s="53" t="s">
         <v>175</v>
       </c>
@@ -9525,7 +9525,7 @@
       <c r="Q118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="R118" s="138"/>
+      <c r="R118" s="137"/>
       <c r="S118" s="53" t="s">
         <v>434</v>
       </c>
@@ -10985,28 +10985,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C117:C118"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="H92:H93"/>
     <mergeCell ref="H117:H118"/>
@@ -11023,11 +11006,28 @@
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M15:M18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:S71 F72:G72 I72:L72 N72:Q72 S72 F73:S163">
@@ -11058,12 +11058,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
@@ -11106,7 +11106,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="132" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -11120,7 +11120,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="140"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -11132,7 +11132,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -11144,7 +11144,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="141"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -11166,7 +11166,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -11180,7 +11180,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -11216,7 +11216,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -11230,7 +11230,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -11242,7 +11242,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -11254,7 +11254,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="141"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -11322,7 +11322,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="132" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -11336,7 +11336,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="141"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -11386,7 +11386,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="132" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -11400,7 +11400,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="140"/>
+      <c r="C29" s="133"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -11412,7 +11412,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="140"/>
+      <c r="C30" s="133"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -11424,7 +11424,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="141"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="139" t="s">
+      <c r="C33" s="132" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -11460,7 +11460,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="140"/>
+      <c r="C34" s="133"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="141"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -11484,7 +11484,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="139" t="s">
+      <c r="C36" s="132" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -11498,7 +11498,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="140"/>
+      <c r="C37" s="133"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -11510,7 +11510,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="141"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -11548,7 +11548,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="132" t="s">
+      <c r="C42" s="138" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -11562,7 +11562,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="133"/>
+      <c r="C43" s="139"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -11574,7 +11574,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="133"/>
+      <c r="C44" s="139"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -11586,7 +11586,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="134"/>
+      <c r="C45" s="140"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -11622,7 +11622,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="132" t="s">
+      <c r="C48" s="138" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -11636,7 +11636,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="134"/>
+      <c r="C49" s="140"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -11760,7 +11760,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="132" t="s">
+      <c r="C58" s="138" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -11774,7 +11774,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="134"/>
+      <c r="C59" s="140"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -12208,7 +12208,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="135" t="s">
+      <c r="C92" s="141" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -12222,7 +12222,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="136"/>
+      <c r="C93" s="142"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -12500,7 +12500,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="137" t="s">
+      <c r="C117" s="136" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -12514,7 +12514,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="138"/>
+      <c r="C118" s="137"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -13044,12 +13044,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C23:C24"/>
@@ -13057,6 +13051,12 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13081,12 +13081,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -13245,7 +13245,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -13259,7 +13259,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -13271,7 +13271,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -13283,7 +13283,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="141"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -13389,7 +13389,7 @@
       <c r="B26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="132" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="50" t="s">
@@ -13403,7 +13403,7 @@
       <c r="B27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="140"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -13415,7 +13415,7 @@
       <c r="B28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="140"/>
+      <c r="C28" s="133"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -13427,7 +13427,7 @@
       <c r="B29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="141"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -13465,7 +13465,7 @@
       <c r="B33" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="132" t="s">
+      <c r="C33" s="138" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="51" t="s">
@@ -13479,7 +13479,7 @@
       <c r="B34" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="133"/>
+      <c r="C34" s="139"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -13491,7 +13491,7 @@
       <c r="B35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="133"/>
+      <c r="C35" s="139"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -13503,7 +13503,7 @@
       <c r="B36" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="134"/>
+      <c r="C36" s="140"/>
       <c r="D36" s="51" t="s">
         <v>181</v>
       </c>
@@ -13539,7 +13539,7 @@
       <c r="B39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="132" t="s">
+      <c r="C39" s="138" t="s">
         <v>343</v>
       </c>
       <c r="D39" s="51" t="s">
@@ -13553,7 +13553,7 @@
       <c r="B40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="134"/>
+      <c r="C40" s="140"/>
       <c r="D40" s="51" t="s">
         <v>185</v>
       </c>
@@ -13663,7 +13663,7 @@
       <c r="B48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="132" t="s">
+      <c r="C48" s="138" t="s">
         <v>413</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -13677,7 +13677,7 @@
       <c r="B49" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C49" s="134"/>
+      <c r="C49" s="140"/>
       <c r="D49" s="51" t="s">
         <v>169</v>
       </c>
@@ -14372,7 +14372,7 @@
       <c r="B104" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C104" s="137" t="s">
+      <c r="C104" s="136" t="s">
         <v>273</v>
       </c>
       <c r="D104" s="53" t="s">
@@ -14386,7 +14386,7 @@
       <c r="B105" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C105" s="138"/>
+      <c r="C105" s="137"/>
       <c r="D105" s="53" t="s">
         <v>175</v>
       </c>
@@ -14829,12 +14829,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="135" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -14883,7 +14883,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="132" t="s">
         <v>426</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -14897,7 +14897,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="140"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -14909,7 +14909,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -14921,7 +14921,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="141"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -14943,7 +14943,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -14957,7 +14957,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -14993,7 +14993,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -15007,7 +15007,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -15019,7 +15019,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -15031,7 +15031,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="141"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -15123,7 +15123,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="132" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -15137,7 +15137,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="140"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -15149,7 +15149,7 @@
       <c r="B27" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C27" s="140"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -15161,7 +15161,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="141"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -15199,7 +15199,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="138" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -15213,7 +15213,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="134"/>
+      <c r="C33" s="140"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -15273,7 +15273,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="132" t="s">
+      <c r="C38" s="138" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -15287,7 +15287,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="134"/>
+      <c r="C39" s="140"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -15383,7 +15383,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="132" t="s">
+      <c r="C46" s="138" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -15397,7 +15397,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="134"/>
+      <c r="C47" s="140"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -15731,7 +15731,7 @@
       <c r="B73" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="135" t="s">
+      <c r="C73" s="141" t="s">
         <v>427</v>
       </c>
       <c r="D73" s="52" t="s">
@@ -15745,7 +15745,7 @@
       <c r="B74" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="136"/>
+      <c r="C74" s="142"/>
       <c r="D74" s="52" t="s">
         <v>185</v>
       </c>
@@ -16000,7 +16000,7 @@
       <c r="B96" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="137" t="s">
+      <c r="C96" s="136" t="s">
         <v>273</v>
       </c>
       <c r="D96" s="53" t="s">
@@ -16014,7 +16014,7 @@
       <c r="B97" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="138"/>
+      <c r="C97" s="137"/>
       <c r="D97" s="53" t="s">
         <v>175</v>
       </c>
@@ -16546,16 +16546,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16580,12 +16580,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -16634,7 +16634,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="132" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -16648,7 +16648,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="140"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -16660,7 +16660,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -16672,7 +16672,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="141"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -16694,7 +16694,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -16708,7 +16708,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -16742,7 +16742,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -16756,7 +16756,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -16768,7 +16768,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -16780,7 +16780,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="141"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -16872,7 +16872,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="132" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -16886,7 +16886,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="140"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -16898,7 +16898,7 @@
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="140"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -16910,7 +16910,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="141"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -16948,7 +16948,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="138" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -16962,7 +16962,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="133"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -16974,7 +16974,7 @@
       <c r="B34" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="133"/>
+      <c r="C34" s="139"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -16986,7 +16986,7 @@
       <c r="B35" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="134"/>
+      <c r="C35" s="140"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -17022,7 +17022,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="132" t="s">
+      <c r="C38" s="138" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -17036,7 +17036,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="134"/>
+      <c r="C39" s="140"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -17132,7 +17132,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="132" t="s">
+      <c r="C46" s="138" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -17146,7 +17146,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="134"/>
+      <c r="C47" s="140"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -17466,7 +17466,7 @@
       <c r="B72" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="135" t="s">
+      <c r="C72" s="141" t="s">
         <v>427</v>
       </c>
       <c r="D72" s="52" t="s">
@@ -17480,7 +17480,7 @@
       <c r="B73" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="136"/>
+      <c r="C73" s="142"/>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
@@ -17711,7 +17711,7 @@
       <c r="B93" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="137" t="s">
+      <c r="C93" s="136" t="s">
         <v>273</v>
       </c>
       <c r="D93" s="53" t="s">
@@ -17725,7 +17725,7 @@
       <c r="B94" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="138"/>
+      <c r="C94" s="137"/>
       <c r="D94" s="53" t="s">
         <v>434</v>
       </c>
@@ -18083,16 +18083,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
